--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\SourceCode\mayuradesh\mosip-data\lts\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6294F3-D9EF-448E-BCE3-E66EB2C94300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -80,9 +89,6 @@
   </si>
   <si>
     <t>schema</t>
-  </si>
-  <si>
-    <t>{"identity":{"identity":[{"id":"IDSchemaVersion","description":"ID Schema Version","type":"number","controlType":null,"fieldType":"default","inputRequired":false,"validators":[],"required":true},{"id":"fullName","description":"Enter Full Name","labelName":{"eng":"Full Name","fra":"Nom complet"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"dateOfBirth","description":"Enter DOB","labelName":{"eng":"Date Of Birth","fra":"Date de naissance"},"controlType":"ageDate","inputRequired":true,"fieldType":"default","type":"string","validators":[],"required":true},{"id":"gender","description":"Enter Gender","labelName":{"eng":"Gender","fra":"Le genre"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"residenceStatus","description":"Residence status","labelName":{"eng":"Residence Status","fra":"Statut de résidence"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"addressLine1","description":"addressLine1","labelName":{"eng":"Address Line1","fra":"Adresse 1"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"addressLine2","description":"addressLine2","labelName":{"eng":"Address Line2","fra":"Adresse 2"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"addressLine3","description":"addressLine3","labelName":{"eng":"Address Line3","fra":"Adresse 3"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"region","description":"region","labelName":{"eng":"Region","fra":"Région"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true},{"id":"province","description":"province","labelName":{"eng":"Province","fra":"Province"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true},{"id":"city","description":"city","labelName":{"eng":"City","fra":"Ville"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true},{"id":"zone","description":"zone","labelName":{"eng":"Zone","fra":"Zone"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"required":true},{"id":"postalCode","description":"postalCode","labelName":{"eng":"Postal Code","fra":"code postal"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[]}],"required":true},{"id":"phone","description":"phone","labelName":{"eng":"Phone","fra":"Téléphone"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^([6-9]{1})([0-9]{9})$","arguments":[]}],"required":true},{"id":"email","description":"email","labelName":{"eng":"Email","fra":"Email"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$","arguments":[]}],"required":true},{"id":"proofOfAddress","description":"proofOfAddress","labelName":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POA","required":false},{"id":"proofOfIdentity","description":"proofOfIdentity","labelName":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POI","required":true},{"id":"proofOfRelationship","description":"proofOfRelationship","labelName":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POR","required":true},{"id":"proofOfDateOfBirth","description":"proofOfDateOfBirth","labelName":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POB","required":true},{"id":"proofOfException","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true},{"id":"proofOfException-1","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true}],"locationHierarchy":["region","province","city","zone","postalCode"]}}</t>
   </si>
   <si>
     <t>now()</t>
@@ -198,32 +204,38 @@
   <si>
     <t>{"id":"BIOMETRIC_CORRECTION","order":4,"flow":"CORRECTION","isSubProcess":false,"label":{"eng":"Biometric correction","fra":"Correction biométrique"},"screens":[{"order":1,"name":"consentdet","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":[{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":false,"active":false},{"order":2,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"proofOfException","inputRequired":false,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":true,"active":false}],"caption":{"eng":"Biometric correction","fra":"Correction biométrique"},"icon":"UINUpdate.png","isActive":true,"autoSelectedGroups":null}</t>
   </si>
+  <si>
+    <t>{"identity":{"identity":[{"id":"IDSchemaVersion","description":"ID Schema Version","type":"number","controlType":null,"fieldType":"default","inputRequired":false,"validators":[],"required":true},{"id":"fullName","description":"Enter Full Name","labelName":{"eng":"Full Name","fra":"Nom complet"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"dateOfBirth","description":"Enter DOB","labelName":{"eng":"Date Of Birth","fra":"Date de naissance"},"controlType":"ageDate","inputRequired":true,"fieldType":"default","type":"string","validators":[],"required":true},{"id":"gender","description":"Enter Gender","labelName":{"eng":"Gender","fra":"Le genre"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"residenceStatus","description":"Residence status","labelName":{"eng":"Residence Status","fra":"Statut de résidence"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"addressLine1","description":"addressLine1","labelName":{"eng":"Address Line1","fra":"Adresse 1"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"addressLine2","description":"addressLine2","labelName":{"eng":"Address Line2","fra":"Adresse 2"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"addressLine3","description":"addressLine3","labelName":{"eng":"Address Line3","fra":"Adresse 3"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"region","description":"region","labelName":{"eng":"Region","fra":"Région"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"parentLocCode":"MOR","locationHierarchyLevel":1,"required":true},{"id":"province","description":"province","labelName":{"eng":"Province","fra":"Province"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":2,"required":true},{"id":"city","description":"city","labelName":{"eng":"City","fra":"Ville"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":3,"required":true},{"id":"zone","description":"zone","labelName":{"eng":"Zone","fra":"Zone"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"locationHierarchyLevel":4,"required":true},{"id":"postalCode","description":"postalCode","labelName":{"eng":"Postal Code","fra":"code postal"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[]}],"locationHierarchyLevel":5,"required":true},{"id":"phone","description":"phone","labelName":{"eng":"Phone","fra":"Téléphone"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^([6-9]{1})([0-9]{9})$","arguments":[]}],"required":true},{"id":"email","description":"email","labelName":{"eng":"Email","fra":"Email"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$","arguments":[]}],"required":true},{"id":"proofOfAddress","description":"proofOfAddress","labelName":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POA","required":false},{"id":"proofOfIdentity","description":"proofOfIdentity","labelName":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POI","required":true},{"id":"proofOfRelationship","description":"proofOfRelationship","labelName":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POR","required":true},{"id":"proofOfDateOfBirth","description":"proofOfDateOfBirth","labelName":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POB","required":true},{"id":"proofOfException","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true},{"id":"proofOfException-1","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true}],"locationHierarchy":["region","province","city","zone","postalCode"]}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,11 +243,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -249,56 +267,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -488,38 +508,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="5" width="15.71"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
-    <col customWidth="1" min="7" max="7" width="45.86"/>
-    <col customWidth="1" min="8" max="8" width="18.0"/>
-    <col customWidth="1" min="9" max="9" width="13.0"/>
-    <col customWidth="1" min="10" max="10" width="14.14"/>
-    <col customWidth="1" min="11" max="11" width="10.14"/>
-    <col customWidth="1" min="12" max="15" width="8.57"/>
-    <col customWidth="1" min="16" max="16" width="12.86"/>
-    <col customWidth="1" min="17" max="26" width="8.57"/>
+    <col min="1" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -595,253 +615,253 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="2">
         <v>0.1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>0.1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" s="2">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I3" s="2">
         <v>0.1</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>0.1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="2">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I4" s="2">
         <v>0.1</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" ht="30.75" customHeight="1">
+    <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>0.1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I5" s="2">
         <v>0.1</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" ht="29.25" customHeight="1">
+    <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7">
         <v>0.1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H6" s="7">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I6" s="7">
         <v>0.1</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="8"/>
@@ -853,57 +873,57 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2">
         <v>0.1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" s="7">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I7" s="7">
         <v>0.1</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
@@ -915,57 +935,57 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" s="7">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I8" s="7">
         <v>0.1</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="8"/>
@@ -977,57 +997,57 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7">
         <v>0.1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="7">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="I9" s="7">
         <v>0.1</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
@@ -1039,7 +1059,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1067,7 +1087,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1095,7 +1115,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1115,7 +1135,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1135,7 +1155,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1155,7 +1175,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1175,7 +1195,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1195,7 +1215,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1215,7 +1235,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1235,7 +1255,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1255,7 +1275,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1275,7 +1295,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1295,7 +1315,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1315,7 +1335,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1335,7 +1355,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1355,7 +1375,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1375,7 +1395,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1395,7 +1415,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1415,7 +1435,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1435,7 +1455,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1455,7 +1475,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1475,7 +1495,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1495,7 +1515,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1515,7 +1535,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1535,7 +1555,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1555,7 +1575,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1575,7 +1595,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1595,7 +1615,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1615,7 +1635,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1635,7 +1655,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1655,7 +1675,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1675,7 +1695,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1695,7 +1715,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1715,7 +1735,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1735,7 +1755,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1755,7 +1775,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1775,7 +1795,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1795,7 +1815,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1815,7 +1835,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1835,7 +1855,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1855,7 +1875,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1875,7 +1895,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1895,7 +1915,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1915,7 +1935,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1935,7 +1955,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1955,7 +1975,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1975,7 +1995,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1995,7 +2015,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2015,7 +2035,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2035,7 +2055,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2055,7 +2075,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2075,7 +2095,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2095,7 +2115,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2115,7 +2135,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2135,7 +2155,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2155,7 +2175,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2175,7 +2195,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2195,7 +2215,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2215,7 +2235,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2235,7 +2255,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2255,7 +2275,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2275,7 +2295,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2295,7 +2315,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2315,7 +2335,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2335,7 +2355,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2355,7 +2375,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2375,7 +2395,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2395,7 +2415,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2415,7 +2435,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2435,7 +2455,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2455,7 +2475,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2475,7 +2495,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2495,7 +2515,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2515,7 +2535,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2535,7 +2555,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2555,7 +2575,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2575,7 +2595,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2595,7 +2615,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2615,7 +2635,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2635,7 +2655,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2655,7 +2675,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2675,7 +2695,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2695,7 +2715,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2715,7 +2735,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2735,7 +2755,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2755,7 +2775,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2775,7 +2795,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2795,7 +2815,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2815,7 +2835,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2835,7 +2855,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2855,7 +2875,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2875,7 +2895,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2895,7 +2915,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2915,7 +2935,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2935,7 +2955,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2955,7 +2975,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2975,7 +2995,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2995,7 +3015,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3015,7 +3035,7 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3035,7 +3055,7 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3055,7 +3075,7 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3075,7 +3095,7 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3095,7 +3115,7 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3115,7 +3135,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3135,7 +3155,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3155,7 +3175,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3175,7 +3195,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3195,7 +3215,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3215,7 +3235,7 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3235,7 +3255,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3255,7 +3275,7 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3275,7 +3295,7 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3295,7 +3315,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3315,7 +3335,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3335,7 +3355,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3355,7 +3375,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3375,7 +3395,7 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3395,7 +3415,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3415,7 +3435,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3435,7 +3455,7 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3455,7 +3475,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3475,7 +3495,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3495,7 +3515,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3515,7 +3535,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3535,7 +3555,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3555,7 +3575,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3575,7 +3595,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3595,7 +3615,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3615,7 +3635,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3635,7 +3655,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3655,7 +3675,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3675,7 +3695,7 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3695,7 +3715,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3715,7 +3735,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3735,7 +3755,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3755,7 +3775,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3775,7 +3795,7 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3795,7 +3815,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3815,7 +3835,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3835,7 +3855,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3855,7 +3875,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3875,7 +3895,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3895,7 +3915,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3915,7 +3935,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3935,7 +3955,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3955,7 +3975,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3975,7 +3995,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3995,7 +4015,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4015,7 +4035,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4035,7 +4055,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4055,7 +4075,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4075,7 +4095,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4095,7 +4115,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4115,7 +4135,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4135,7 +4155,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4155,7 +4175,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4175,7 +4195,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4195,7 +4215,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4215,7 +4235,7 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4235,7 +4255,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4255,7 +4275,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4275,7 +4295,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4295,7 +4315,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4315,7 +4335,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4335,7 +4355,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4355,7 +4375,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4375,7 +4395,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4395,7 +4415,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4415,7 +4435,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4435,7 +4455,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4455,7 +4475,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4475,7 +4495,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4495,7 +4515,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4515,7 +4535,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4535,7 +4555,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4555,7 +4575,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4575,7 +4595,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4595,7 +4615,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4615,7 +4635,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4635,7 +4655,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4655,7 +4675,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4675,7 +4695,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4695,7 +4715,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4715,7 +4735,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4735,7 +4755,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4755,7 +4775,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4775,7 +4795,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4795,7 +4815,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4815,7 +4835,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4835,7 +4855,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4855,7 +4875,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4875,7 +4895,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4895,7 +4915,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4915,7 +4935,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4935,7 +4955,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4955,7 +4975,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4975,7 +4995,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4995,7 +5015,7 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -5015,7 +5035,7 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5035,7 +5055,7 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -5055,7 +5075,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -5075,7 +5095,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -5095,7 +5115,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -5115,7 +5135,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5135,7 +5155,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -5155,7 +5175,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -5175,7 +5195,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -5195,7 +5215,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -5215,7 +5235,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5235,7 +5255,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -5255,7 +5275,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5275,7 +5295,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5295,7 +5315,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -5315,7 +5335,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -5335,7 +5355,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5355,7 +5375,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -5375,7 +5395,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5395,7 +5415,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5415,7 +5435,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -5435,7 +5455,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -5455,7 +5475,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -5475,7 +5495,7 @@
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -5495,7 +5515,7 @@
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -5515,7 +5535,7 @@
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -5535,7 +5555,7 @@
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -5555,7 +5575,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -5575,7 +5595,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -5595,7 +5615,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5615,7 +5635,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -5635,7 +5655,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -5655,7 +5675,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5675,7 +5695,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5695,7 +5715,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5715,7 +5735,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -5735,7 +5755,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5755,7 +5775,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -5775,7 +5795,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -5795,7 +5815,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -5815,7 +5835,7 @@
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -5835,7 +5855,7 @@
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -5855,7 +5875,7 @@
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5875,7 +5895,7 @@
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5895,7 +5915,7 @@
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -5915,7 +5935,7 @@
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -5935,7 +5955,7 @@
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
     </row>
-    <row r="254" ht="13.5" customHeight="1">
+    <row r="254" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -5955,7 +5975,7 @@
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
     </row>
-    <row r="255" ht="13.5" customHeight="1">
+    <row r="255" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -5975,7 +5995,7 @@
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
     </row>
-    <row r="256" ht="13.5" customHeight="1">
+    <row r="256" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -5995,7 +6015,7 @@
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" ht="13.5" customHeight="1">
+    <row r="257" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -6015,7 +6035,7 @@
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" ht="13.5" customHeight="1">
+    <row r="258" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -6035,7 +6055,7 @@
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
     </row>
-    <row r="259" ht="13.5" customHeight="1">
+    <row r="259" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -6055,7 +6075,7 @@
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
     </row>
-    <row r="260" ht="13.5" customHeight="1">
+    <row r="260" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -6075,7 +6095,7 @@
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
     </row>
-    <row r="261" ht="13.5" customHeight="1">
+    <row r="261" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -6095,7 +6115,7 @@
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
     </row>
-    <row r="262" ht="13.5" customHeight="1">
+    <row r="262" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -6115,7 +6135,7 @@
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
     </row>
-    <row r="263" ht="13.5" customHeight="1">
+    <row r="263" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -6135,7 +6155,7 @@
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
     </row>
-    <row r="264" ht="13.5" customHeight="1">
+    <row r="264" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -6155,7 +6175,7 @@
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
     </row>
-    <row r="265" ht="13.5" customHeight="1">
+    <row r="265" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -6175,7 +6195,7 @@
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
     </row>
-    <row r="266" ht="13.5" customHeight="1">
+    <row r="266" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -6195,7 +6215,7 @@
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
     </row>
-    <row r="267" ht="13.5" customHeight="1">
+    <row r="267" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -6215,7 +6235,7 @@
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
     </row>
-    <row r="268" ht="13.5" customHeight="1">
+    <row r="268" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -6235,7 +6255,7 @@
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" ht="13.5" customHeight="1">
+    <row r="269" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -6255,7 +6275,7 @@
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
     </row>
-    <row r="270" ht="13.5" customHeight="1">
+    <row r="270" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -6275,7 +6295,7 @@
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
     </row>
-    <row r="271" ht="13.5" customHeight="1">
+    <row r="271" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -6295,7 +6315,7 @@
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
     </row>
-    <row r="272" ht="13.5" customHeight="1">
+    <row r="272" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -6315,7 +6335,7 @@
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
     </row>
-    <row r="273" ht="13.5" customHeight="1">
+    <row r="273" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -6335,7 +6355,7 @@
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
     </row>
-    <row r="274" ht="13.5" customHeight="1">
+    <row r="274" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -6355,7 +6375,7 @@
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
+    <row r="275" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -6375,7 +6395,7 @@
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
     </row>
-    <row r="276" ht="13.5" customHeight="1">
+    <row r="276" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -6395,7 +6415,7 @@
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
     </row>
-    <row r="277" ht="13.5" customHeight="1">
+    <row r="277" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -6415,7 +6435,7 @@
       <c r="Q277" s="2"/>
       <c r="R277" s="2"/>
     </row>
-    <row r="278" ht="13.5" customHeight="1">
+    <row r="278" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -6435,7 +6455,7 @@
       <c r="Q278" s="2"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" ht="13.5" customHeight="1">
+    <row r="279" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -6455,7 +6475,7 @@
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
     </row>
-    <row r="280" ht="13.5" customHeight="1">
+    <row r="280" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -6475,7 +6495,7 @@
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
     </row>
-    <row r="281" ht="13.5" customHeight="1">
+    <row r="281" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -6495,7 +6515,7 @@
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
     </row>
-    <row r="282" ht="13.5" customHeight="1">
+    <row r="282" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -6515,7 +6535,7 @@
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
     </row>
-    <row r="283" ht="13.5" customHeight="1">
+    <row r="283" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -6535,7 +6555,7 @@
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
     </row>
-    <row r="284" ht="13.5" customHeight="1">
+    <row r="284" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -6555,7 +6575,7 @@
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
     </row>
-    <row r="285" ht="13.5" customHeight="1">
+    <row r="285" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -6575,7 +6595,7 @@
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
     </row>
-    <row r="286" ht="13.5" customHeight="1">
+    <row r="286" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -6595,7 +6615,7 @@
       <c r="Q286" s="2"/>
       <c r="R286" s="2"/>
     </row>
-    <row r="287" ht="13.5" customHeight="1">
+    <row r="287" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -6615,7 +6635,7 @@
       <c r="Q287" s="2"/>
       <c r="R287" s="2"/>
     </row>
-    <row r="288" ht="13.5" customHeight="1">
+    <row r="288" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -6635,7 +6655,7 @@
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
     </row>
-    <row r="289" ht="13.5" customHeight="1">
+    <row r="289" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -6655,7 +6675,7 @@
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
     </row>
-    <row r="290" ht="13.5" customHeight="1">
+    <row r="290" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -6675,7 +6695,7 @@
       <c r="Q290" s="2"/>
       <c r="R290" s="2"/>
     </row>
-    <row r="291" ht="13.5" customHeight="1">
+    <row r="291" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -6695,7 +6715,7 @@
       <c r="Q291" s="2"/>
       <c r="R291" s="2"/>
     </row>
-    <row r="292" ht="13.5" customHeight="1">
+    <row r="292" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -6715,7 +6735,7 @@
       <c r="Q292" s="2"/>
       <c r="R292" s="2"/>
     </row>
-    <row r="293" ht="13.5" customHeight="1">
+    <row r="293" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -6735,7 +6755,7 @@
       <c r="Q293" s="2"/>
       <c r="R293" s="2"/>
     </row>
-    <row r="294" ht="13.5" customHeight="1">
+    <row r="294" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -6755,7 +6775,7 @@
       <c r="Q294" s="2"/>
       <c r="R294" s="2"/>
     </row>
-    <row r="295" ht="13.5" customHeight="1">
+    <row r="295" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -6775,7 +6795,7 @@
       <c r="Q295" s="2"/>
       <c r="R295" s="2"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -6795,7 +6815,7 @@
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
     </row>
-    <row r="297" ht="13.5" customHeight="1">
+    <row r="297" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6815,7 +6835,7 @@
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
     </row>
-    <row r="298" ht="13.5" customHeight="1">
+    <row r="298" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -6835,7 +6855,7 @@
       <c r="Q298" s="2"/>
       <c r="R298" s="2"/>
     </row>
-    <row r="299" ht="13.5" customHeight="1">
+    <row r="299" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -6855,7 +6875,7 @@
       <c r="Q299" s="2"/>
       <c r="R299" s="2"/>
     </row>
-    <row r="300" ht="13.5" customHeight="1">
+    <row r="300" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -6875,7 +6895,7 @@
       <c r="Q300" s="2"/>
       <c r="R300" s="2"/>
     </row>
-    <row r="301" ht="13.5" customHeight="1">
+    <row r="301" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -6895,7 +6915,7 @@
       <c r="Q301" s="2"/>
       <c r="R301" s="2"/>
     </row>
-    <row r="302" ht="13.5" customHeight="1">
+    <row r="302" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -6915,7 +6935,7 @@
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
     </row>
-    <row r="303" ht="13.5" customHeight="1">
+    <row r="303" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -6935,7 +6955,7 @@
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
     </row>
-    <row r="304" ht="13.5" customHeight="1">
+    <row r="304" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -6955,7 +6975,7 @@
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
     </row>
-    <row r="305" ht="13.5" customHeight="1">
+    <row r="305" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -6975,7 +6995,7 @@
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
     </row>
-    <row r="306" ht="13.5" customHeight="1">
+    <row r="306" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6995,7 +7015,7 @@
       <c r="Q306" s="2"/>
       <c r="R306" s="2"/>
     </row>
-    <row r="307" ht="13.5" customHeight="1">
+    <row r="307" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7015,7 +7035,7 @@
       <c r="Q307" s="2"/>
       <c r="R307" s="2"/>
     </row>
-    <row r="308" ht="13.5" customHeight="1">
+    <row r="308" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -7035,7 +7055,7 @@
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
     </row>
-    <row r="309" ht="13.5" customHeight="1">
+    <row r="309" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -7055,7 +7075,7 @@
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
     </row>
-    <row r="310" ht="13.5" customHeight="1">
+    <row r="310" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -7075,7 +7095,7 @@
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
     </row>
-    <row r="311" ht="13.5" customHeight="1">
+    <row r="311" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -7095,7 +7115,7 @@
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
     </row>
-    <row r="312" ht="13.5" customHeight="1">
+    <row r="312" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -7115,7 +7135,7 @@
       <c r="Q312" s="2"/>
       <c r="R312" s="2"/>
     </row>
-    <row r="313" ht="13.5" customHeight="1">
+    <row r="313" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -7135,7 +7155,7 @@
       <c r="Q313" s="2"/>
       <c r="R313" s="2"/>
     </row>
-    <row r="314" ht="13.5" customHeight="1">
+    <row r="314" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -7155,7 +7175,7 @@
       <c r="Q314" s="2"/>
       <c r="R314" s="2"/>
     </row>
-    <row r="315" ht="13.5" customHeight="1">
+    <row r="315" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -7175,7 +7195,7 @@
       <c r="Q315" s="2"/>
       <c r="R315" s="2"/>
     </row>
-    <row r="316" ht="13.5" customHeight="1">
+    <row r="316" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -7195,7 +7215,7 @@
       <c r="Q316" s="2"/>
       <c r="R316" s="2"/>
     </row>
-    <row r="317" ht="13.5" customHeight="1">
+    <row r="317" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -7215,7 +7235,7 @@
       <c r="Q317" s="2"/>
       <c r="R317" s="2"/>
     </row>
-    <row r="318" ht="13.5" customHeight="1">
+    <row r="318" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7235,7 +7255,7 @@
       <c r="Q318" s="2"/>
       <c r="R318" s="2"/>
     </row>
-    <row r="319" ht="13.5" customHeight="1">
+    <row r="319" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -7255,7 +7275,7 @@
       <c r="Q319" s="2"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" ht="13.5" customHeight="1">
+    <row r="320" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -7275,7 +7295,7 @@
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
     </row>
-    <row r="321" ht="13.5" customHeight="1">
+    <row r="321" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7295,7 +7315,7 @@
       <c r="Q321" s="2"/>
       <c r="R321" s="2"/>
     </row>
-    <row r="322" ht="13.5" customHeight="1">
+    <row r="322" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7315,7 +7335,7 @@
       <c r="Q322" s="2"/>
       <c r="R322" s="2"/>
     </row>
-    <row r="323" ht="13.5" customHeight="1">
+    <row r="323" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7335,7 +7355,7 @@
       <c r="Q323" s="2"/>
       <c r="R323" s="2"/>
     </row>
-    <row r="324" ht="13.5" customHeight="1">
+    <row r="324" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7355,7 +7375,7 @@
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
     </row>
-    <row r="325" ht="13.5" customHeight="1">
+    <row r="325" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7375,7 +7395,7 @@
       <c r="Q325" s="2"/>
       <c r="R325" s="2"/>
     </row>
-    <row r="326" ht="13.5" customHeight="1">
+    <row r="326" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7395,7 +7415,7 @@
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
     </row>
-    <row r="327" ht="13.5" customHeight="1">
+    <row r="327" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7415,7 +7435,7 @@
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
     </row>
-    <row r="328" ht="13.5" customHeight="1">
+    <row r="328" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7435,7 +7455,7 @@
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
     </row>
-    <row r="329" ht="13.5" customHeight="1">
+    <row r="329" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -7455,7 +7475,7 @@
       <c r="Q329" s="2"/>
       <c r="R329" s="2"/>
     </row>
-    <row r="330" ht="13.5" customHeight="1">
+    <row r="330" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -7475,7 +7495,7 @@
       <c r="Q330" s="2"/>
       <c r="R330" s="2"/>
     </row>
-    <row r="331" ht="13.5" customHeight="1">
+    <row r="331" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -7495,7 +7515,7 @@
       <c r="Q331" s="2"/>
       <c r="R331" s="2"/>
     </row>
-    <row r="332" ht="13.5" customHeight="1">
+    <row r="332" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7515,7 +7535,7 @@
       <c r="Q332" s="2"/>
       <c r="R332" s="2"/>
     </row>
-    <row r="333" ht="13.5" customHeight="1">
+    <row r="333" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7535,7 +7555,7 @@
       <c r="Q333" s="2"/>
       <c r="R333" s="2"/>
     </row>
-    <row r="334" ht="13.5" customHeight="1">
+    <row r="334" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7555,7 +7575,7 @@
       <c r="Q334" s="2"/>
       <c r="R334" s="2"/>
     </row>
-    <row r="335" ht="13.5" customHeight="1">
+    <row r="335" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7575,7 +7595,7 @@
       <c r="Q335" s="2"/>
       <c r="R335" s="2"/>
     </row>
-    <row r="336" ht="13.5" customHeight="1">
+    <row r="336" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7595,7 +7615,7 @@
       <c r="Q336" s="2"/>
       <c r="R336" s="2"/>
     </row>
-    <row r="337" ht="13.5" customHeight="1">
+    <row r="337" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7615,7 +7635,7 @@
       <c r="Q337" s="2"/>
       <c r="R337" s="2"/>
     </row>
-    <row r="338" ht="13.5" customHeight="1">
+    <row r="338" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7635,7 +7655,7 @@
       <c r="Q338" s="2"/>
       <c r="R338" s="2"/>
     </row>
-    <row r="339" ht="13.5" customHeight="1">
+    <row r="339" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7655,7 +7675,7 @@
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
     </row>
-    <row r="340" ht="13.5" customHeight="1">
+    <row r="340" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7675,7 +7695,7 @@
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
     </row>
-    <row r="341" ht="13.5" customHeight="1">
+    <row r="341" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7695,7 +7715,7 @@
       <c r="Q341" s="2"/>
       <c r="R341" s="2"/>
     </row>
-    <row r="342" ht="13.5" customHeight="1">
+    <row r="342" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7715,7 +7735,7 @@
       <c r="Q342" s="2"/>
       <c r="R342" s="2"/>
     </row>
-    <row r="343" ht="13.5" customHeight="1">
+    <row r="343" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7735,7 +7755,7 @@
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
     </row>
-    <row r="344" ht="13.5" customHeight="1">
+    <row r="344" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7755,7 +7775,7 @@
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
     </row>
-    <row r="345" ht="13.5" customHeight="1">
+    <row r="345" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7775,7 +7795,7 @@
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
     </row>
-    <row r="346" ht="13.5" customHeight="1">
+    <row r="346" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7795,7 +7815,7 @@
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
     </row>
-    <row r="347" ht="13.5" customHeight="1">
+    <row r="347" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7815,7 +7835,7 @@
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
     </row>
-    <row r="348" ht="13.5" customHeight="1">
+    <row r="348" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7835,7 +7855,7 @@
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
     </row>
-    <row r="349" ht="13.5" customHeight="1">
+    <row r="349" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7855,7 +7875,7 @@
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
     </row>
-    <row r="350" ht="13.5" customHeight="1">
+    <row r="350" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7875,7 +7895,7 @@
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
     </row>
-    <row r="351" ht="13.5" customHeight="1">
+    <row r="351" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7895,7 +7915,7 @@
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
     </row>
-    <row r="352" ht="13.5" customHeight="1">
+    <row r="352" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7915,7 +7935,7 @@
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
     </row>
-    <row r="353" ht="13.5" customHeight="1">
+    <row r="353" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7935,7 +7955,7 @@
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" ht="13.5" customHeight="1">
+    <row r="354" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7955,7 +7975,7 @@
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" ht="13.5" customHeight="1">
+    <row r="355" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7975,7 +7995,7 @@
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
     </row>
-    <row r="356" ht="13.5" customHeight="1">
+    <row r="356" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7995,7 +8015,7 @@
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
     </row>
-    <row r="357" ht="13.5" customHeight="1">
+    <row r="357" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -8015,7 +8035,7 @@
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
     </row>
-    <row r="358" ht="13.5" customHeight="1">
+    <row r="358" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -8035,7 +8055,7 @@
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
     </row>
-    <row r="359" ht="13.5" customHeight="1">
+    <row r="359" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -8055,7 +8075,7 @@
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
     </row>
-    <row r="360" ht="13.5" customHeight="1">
+    <row r="360" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -8075,7 +8095,7 @@
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
     </row>
-    <row r="361" ht="13.5" customHeight="1">
+    <row r="361" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -8095,7 +8115,7 @@
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
     </row>
-    <row r="362" ht="13.5" customHeight="1">
+    <row r="362" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -8115,7 +8135,7 @@
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
     </row>
-    <row r="363" ht="13.5" customHeight="1">
+    <row r="363" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -8135,7 +8155,7 @@
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
     </row>
-    <row r="364" ht="13.5" customHeight="1">
+    <row r="364" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -8155,7 +8175,7 @@
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
     </row>
-    <row r="365" ht="13.5" customHeight="1">
+    <row r="365" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -8175,7 +8195,7 @@
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
     </row>
-    <row r="366" ht="13.5" customHeight="1">
+    <row r="366" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -8195,7 +8215,7 @@
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
     </row>
-    <row r="367" ht="13.5" customHeight="1">
+    <row r="367" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -8215,7 +8235,7 @@
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
     </row>
-    <row r="368" ht="13.5" customHeight="1">
+    <row r="368" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -8235,7 +8255,7 @@
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
     </row>
-    <row r="369" ht="13.5" customHeight="1">
+    <row r="369" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -8255,7 +8275,7 @@
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
     </row>
-    <row r="370" ht="13.5" customHeight="1">
+    <row r="370" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -8275,7 +8295,7 @@
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
     </row>
-    <row r="371" ht="13.5" customHeight="1">
+    <row r="371" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -8295,7 +8315,7 @@
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
     </row>
-    <row r="372" ht="13.5" customHeight="1">
+    <row r="372" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -8315,7 +8335,7 @@
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
     </row>
-    <row r="373" ht="13.5" customHeight="1">
+    <row r="373" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -8335,7 +8355,7 @@
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
     </row>
-    <row r="374" ht="13.5" customHeight="1">
+    <row r="374" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -8355,7 +8375,7 @@
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
     </row>
-    <row r="375" ht="13.5" customHeight="1">
+    <row r="375" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -8375,7 +8395,7 @@
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
     </row>
-    <row r="376" ht="13.5" customHeight="1">
+    <row r="376" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -8395,7 +8415,7 @@
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
     </row>
-    <row r="377" ht="13.5" customHeight="1">
+    <row r="377" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -8415,7 +8435,7 @@
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
     </row>
-    <row r="378" ht="13.5" customHeight="1">
+    <row r="378" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -8435,7 +8455,7 @@
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
     </row>
-    <row r="379" ht="13.5" customHeight="1">
+    <row r="379" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -8455,7 +8475,7 @@
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
     </row>
-    <row r="380" ht="13.5" customHeight="1">
+    <row r="380" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -8475,7 +8495,7 @@
       <c r="Q380" s="2"/>
       <c r="R380" s="2"/>
     </row>
-    <row r="381" ht="13.5" customHeight="1">
+    <row r="381" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -8495,7 +8515,7 @@
       <c r="Q381" s="2"/>
       <c r="R381" s="2"/>
     </row>
-    <row r="382" ht="13.5" customHeight="1">
+    <row r="382" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -8515,7 +8535,7 @@
       <c r="Q382" s="2"/>
       <c r="R382" s="2"/>
     </row>
-    <row r="383" ht="13.5" customHeight="1">
+    <row r="383" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -8535,7 +8555,7 @@
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
     </row>
-    <row r="384" ht="13.5" customHeight="1">
+    <row r="384" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -8555,7 +8575,7 @@
       <c r="Q384" s="2"/>
       <c r="R384" s="2"/>
     </row>
-    <row r="385" ht="13.5" customHeight="1">
+    <row r="385" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -8575,7 +8595,7 @@
       <c r="Q385" s="2"/>
       <c r="R385" s="2"/>
     </row>
-    <row r="386" ht="13.5" customHeight="1">
+    <row r="386" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -8595,7 +8615,7 @@
       <c r="Q386" s="2"/>
       <c r="R386" s="2"/>
     </row>
-    <row r="387" ht="13.5" customHeight="1">
+    <row r="387" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -8615,7 +8635,7 @@
       <c r="Q387" s="2"/>
       <c r="R387" s="2"/>
     </row>
-    <row r="388" ht="13.5" customHeight="1">
+    <row r="388" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -8635,7 +8655,7 @@
       <c r="Q388" s="2"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" ht="13.5" customHeight="1">
+    <row r="389" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -8655,7 +8675,7 @@
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
     </row>
-    <row r="390" ht="13.5" customHeight="1">
+    <row r="390" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -8675,7 +8695,7 @@
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
     </row>
-    <row r="391" ht="13.5" customHeight="1">
+    <row r="391" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -8695,7 +8715,7 @@
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" ht="13.5" customHeight="1">
+    <row r="392" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -8715,7 +8735,7 @@
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
     </row>
-    <row r="393" ht="13.5" customHeight="1">
+    <row r="393" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -8735,7 +8755,7 @@
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
     </row>
-    <row r="394" ht="13.5" customHeight="1">
+    <row r="394" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -8755,7 +8775,7 @@
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
     </row>
-    <row r="395" ht="13.5" customHeight="1">
+    <row r="395" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -8775,7 +8795,7 @@
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
     </row>
-    <row r="396" ht="13.5" customHeight="1">
+    <row r="396" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -8795,7 +8815,7 @@
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
     </row>
-    <row r="397" ht="13.5" customHeight="1">
+    <row r="397" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -8815,7 +8835,7 @@
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
     </row>
-    <row r="398" ht="13.5" customHeight="1">
+    <row r="398" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -8835,7 +8855,7 @@
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
     </row>
-    <row r="399" ht="13.5" customHeight="1">
+    <row r="399" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -8855,7 +8875,7 @@
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
     </row>
-    <row r="400" ht="13.5" customHeight="1">
+    <row r="400" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -8875,7 +8895,7 @@
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
     </row>
-    <row r="401" ht="13.5" customHeight="1">
+    <row r="401" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -8895,7 +8915,7 @@
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
     </row>
-    <row r="402" ht="13.5" customHeight="1">
+    <row r="402" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8915,7 +8935,7 @@
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
     </row>
-    <row r="403" ht="13.5" customHeight="1">
+    <row r="403" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -8935,7 +8955,7 @@
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
     </row>
-    <row r="404" ht="13.5" customHeight="1">
+    <row r="404" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8955,7 +8975,7 @@
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
     </row>
-    <row r="405" ht="13.5" customHeight="1">
+    <row r="405" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8975,7 +8995,7 @@
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
     </row>
-    <row r="406" ht="13.5" customHeight="1">
+    <row r="406" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8995,7 +9015,7 @@
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
     </row>
-    <row r="407" ht="13.5" customHeight="1">
+    <row r="407" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -9015,7 +9035,7 @@
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
     </row>
-    <row r="408" ht="13.5" customHeight="1">
+    <row r="408" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -9035,7 +9055,7 @@
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
     </row>
-    <row r="409" ht="13.5" customHeight="1">
+    <row r="409" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -9055,7 +9075,7 @@
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
     </row>
-    <row r="410" ht="13.5" customHeight="1">
+    <row r="410" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -9075,7 +9095,7 @@
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
     </row>
-    <row r="411" ht="13.5" customHeight="1">
+    <row r="411" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -9095,7 +9115,7 @@
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
     </row>
-    <row r="412" ht="13.5" customHeight="1">
+    <row r="412" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -9115,7 +9135,7 @@
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
     </row>
-    <row r="413" ht="13.5" customHeight="1">
+    <row r="413" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -9135,7 +9155,7 @@
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
     </row>
-    <row r="414" ht="13.5" customHeight="1">
+    <row r="414" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -9155,7 +9175,7 @@
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
     </row>
-    <row r="415" ht="13.5" customHeight="1">
+    <row r="415" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -9175,7 +9195,7 @@
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
     </row>
-    <row r="416" ht="13.5" customHeight="1">
+    <row r="416" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -9195,7 +9215,7 @@
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
     </row>
-    <row r="417" ht="13.5" customHeight="1">
+    <row r="417" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -9215,7 +9235,7 @@
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
     </row>
-    <row r="418" ht="13.5" customHeight="1">
+    <row r="418" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -9235,7 +9255,7 @@
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
     </row>
-    <row r="419" ht="13.5" customHeight="1">
+    <row r="419" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -9255,7 +9275,7 @@
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
     </row>
-    <row r="420" ht="13.5" customHeight="1">
+    <row r="420" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -9275,7 +9295,7 @@
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
     </row>
-    <row r="421" ht="13.5" customHeight="1">
+    <row r="421" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -9295,7 +9315,7 @@
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
     </row>
-    <row r="422" ht="13.5" customHeight="1">
+    <row r="422" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -9315,7 +9335,7 @@
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
     </row>
-    <row r="423" ht="13.5" customHeight="1">
+    <row r="423" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -9335,7 +9355,7 @@
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
     </row>
-    <row r="424" ht="13.5" customHeight="1">
+    <row r="424" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -9355,7 +9375,7 @@
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
     </row>
-    <row r="425" ht="13.5" customHeight="1">
+    <row r="425" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -9375,7 +9395,7 @@
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
     </row>
-    <row r="426" ht="13.5" customHeight="1">
+    <row r="426" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -9395,7 +9415,7 @@
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
     </row>
-    <row r="427" ht="13.5" customHeight="1">
+    <row r="427" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -9415,7 +9435,7 @@
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
     </row>
-    <row r="428" ht="13.5" customHeight="1">
+    <row r="428" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -9435,7 +9455,7 @@
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
     </row>
-    <row r="429" ht="13.5" customHeight="1">
+    <row r="429" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -9455,7 +9475,7 @@
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
     </row>
-    <row r="430" ht="13.5" customHeight="1">
+    <row r="430" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -9475,7 +9495,7 @@
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
     </row>
-    <row r="431" ht="13.5" customHeight="1">
+    <row r="431" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -9495,7 +9515,7 @@
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
     </row>
-    <row r="432" ht="13.5" customHeight="1">
+    <row r="432" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -9515,7 +9535,7 @@
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
     </row>
-    <row r="433" ht="13.5" customHeight="1">
+    <row r="433" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -9535,7 +9555,7 @@
       <c r="Q433" s="2"/>
       <c r="R433" s="2"/>
     </row>
-    <row r="434" ht="13.5" customHeight="1">
+    <row r="434" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -9555,7 +9575,7 @@
       <c r="Q434" s="2"/>
       <c r="R434" s="2"/>
     </row>
-    <row r="435" ht="13.5" customHeight="1">
+    <row r="435" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -9575,7 +9595,7 @@
       <c r="Q435" s="2"/>
       <c r="R435" s="2"/>
     </row>
-    <row r="436" ht="13.5" customHeight="1">
+    <row r="436" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -9595,7 +9615,7 @@
       <c r="Q436" s="2"/>
       <c r="R436" s="2"/>
     </row>
-    <row r="437" ht="13.5" customHeight="1">
+    <row r="437" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -9615,7 +9635,7 @@
       <c r="Q437" s="2"/>
       <c r="R437" s="2"/>
     </row>
-    <row r="438" ht="13.5" customHeight="1">
+    <row r="438" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -9635,7 +9655,7 @@
       <c r="Q438" s="2"/>
       <c r="R438" s="2"/>
     </row>
-    <row r="439" ht="13.5" customHeight="1">
+    <row r="439" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -9655,7 +9675,7 @@
       <c r="Q439" s="2"/>
       <c r="R439" s="2"/>
     </row>
-    <row r="440" ht="13.5" customHeight="1">
+    <row r="440" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -9675,7 +9695,7 @@
       <c r="Q440" s="2"/>
       <c r="R440" s="2"/>
     </row>
-    <row r="441" ht="13.5" customHeight="1">
+    <row r="441" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -9695,7 +9715,7 @@
       <c r="Q441" s="2"/>
       <c r="R441" s="2"/>
     </row>
-    <row r="442" ht="13.5" customHeight="1">
+    <row r="442" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -9715,7 +9735,7 @@
       <c r="Q442" s="2"/>
       <c r="R442" s="2"/>
     </row>
-    <row r="443" ht="13.5" customHeight="1">
+    <row r="443" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -9735,7 +9755,7 @@
       <c r="Q443" s="2"/>
       <c r="R443" s="2"/>
     </row>
-    <row r="444" ht="13.5" customHeight="1">
+    <row r="444" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -9755,7 +9775,7 @@
       <c r="Q444" s="2"/>
       <c r="R444" s="2"/>
     </row>
-    <row r="445" ht="13.5" customHeight="1">
+    <row r="445" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -9775,7 +9795,7 @@
       <c r="Q445" s="2"/>
       <c r="R445" s="2"/>
     </row>
-    <row r="446" ht="13.5" customHeight="1">
+    <row r="446" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -9795,7 +9815,7 @@
       <c r="Q446" s="2"/>
       <c r="R446" s="2"/>
     </row>
-    <row r="447" ht="13.5" customHeight="1">
+    <row r="447" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -9815,7 +9835,7 @@
       <c r="Q447" s="2"/>
       <c r="R447" s="2"/>
     </row>
-    <row r="448" ht="13.5" customHeight="1">
+    <row r="448" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -9835,7 +9855,7 @@
       <c r="Q448" s="2"/>
       <c r="R448" s="2"/>
     </row>
-    <row r="449" ht="13.5" customHeight="1">
+    <row r="449" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -9855,7 +9875,7 @@
       <c r="Q449" s="2"/>
       <c r="R449" s="2"/>
     </row>
-    <row r="450" ht="13.5" customHeight="1">
+    <row r="450" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -9875,7 +9895,7 @@
       <c r="Q450" s="2"/>
       <c r="R450" s="2"/>
     </row>
-    <row r="451" ht="13.5" customHeight="1">
+    <row r="451" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -9895,7 +9915,7 @@
       <c r="Q451" s="2"/>
       <c r="R451" s="2"/>
     </row>
-    <row r="452" ht="13.5" customHeight="1">
+    <row r="452" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -9915,7 +9935,7 @@
       <c r="Q452" s="2"/>
       <c r="R452" s="2"/>
     </row>
-    <row r="453" ht="13.5" customHeight="1">
+    <row r="453" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -9935,7 +9955,7 @@
       <c r="Q453" s="2"/>
       <c r="R453" s="2"/>
     </row>
-    <row r="454" ht="13.5" customHeight="1">
+    <row r="454" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -9955,7 +9975,7 @@
       <c r="Q454" s="2"/>
       <c r="R454" s="2"/>
     </row>
-    <row r="455" ht="13.5" customHeight="1">
+    <row r="455" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -9975,7 +9995,7 @@
       <c r="Q455" s="2"/>
       <c r="R455" s="2"/>
     </row>
-    <row r="456" ht="13.5" customHeight="1">
+    <row r="456" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -9995,7 +10015,7 @@
       <c r="Q456" s="2"/>
       <c r="R456" s="2"/>
     </row>
-    <row r="457" ht="13.5" customHeight="1">
+    <row r="457" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -10015,7 +10035,7 @@
       <c r="Q457" s="2"/>
       <c r="R457" s="2"/>
     </row>
-    <row r="458" ht="13.5" customHeight="1">
+    <row r="458" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -10035,7 +10055,7 @@
       <c r="Q458" s="2"/>
       <c r="R458" s="2"/>
     </row>
-    <row r="459" ht="13.5" customHeight="1">
+    <row r="459" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -10055,7 +10075,7 @@
       <c r="Q459" s="2"/>
       <c r="R459" s="2"/>
     </row>
-    <row r="460" ht="13.5" customHeight="1">
+    <row r="460" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -10075,7 +10095,7 @@
       <c r="Q460" s="2"/>
       <c r="R460" s="2"/>
     </row>
-    <row r="461" ht="13.5" customHeight="1">
+    <row r="461" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -10095,7 +10115,7 @@
       <c r="Q461" s="2"/>
       <c r="R461" s="2"/>
     </row>
-    <row r="462" ht="13.5" customHeight="1">
+    <row r="462" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -10115,7 +10135,7 @@
       <c r="Q462" s="2"/>
       <c r="R462" s="2"/>
     </row>
-    <row r="463" ht="13.5" customHeight="1">
+    <row r="463" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -10135,7 +10155,7 @@
       <c r="Q463" s="2"/>
       <c r="R463" s="2"/>
     </row>
-    <row r="464" ht="13.5" customHeight="1">
+    <row r="464" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -10155,7 +10175,7 @@
       <c r="Q464" s="2"/>
       <c r="R464" s="2"/>
     </row>
-    <row r="465" ht="13.5" customHeight="1">
+    <row r="465" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -10175,7 +10195,7 @@
       <c r="Q465" s="2"/>
       <c r="R465" s="2"/>
     </row>
-    <row r="466" ht="13.5" customHeight="1">
+    <row r="466" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -10195,7 +10215,7 @@
       <c r="Q466" s="2"/>
       <c r="R466" s="2"/>
     </row>
-    <row r="467" ht="13.5" customHeight="1">
+    <row r="467" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -10215,7 +10235,7 @@
       <c r="Q467" s="2"/>
       <c r="R467" s="2"/>
     </row>
-    <row r="468" ht="13.5" customHeight="1">
+    <row r="468" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -10235,7 +10255,7 @@
       <c r="Q468" s="2"/>
       <c r="R468" s="2"/>
     </row>
-    <row r="469" ht="13.5" customHeight="1">
+    <row r="469" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -10255,7 +10275,7 @@
       <c r="Q469" s="2"/>
       <c r="R469" s="2"/>
     </row>
-    <row r="470" ht="13.5" customHeight="1">
+    <row r="470" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -10275,7 +10295,7 @@
       <c r="Q470" s="2"/>
       <c r="R470" s="2"/>
     </row>
-    <row r="471" ht="13.5" customHeight="1">
+    <row r="471" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -10295,7 +10315,7 @@
       <c r="Q471" s="2"/>
       <c r="R471" s="2"/>
     </row>
-    <row r="472" ht="13.5" customHeight="1">
+    <row r="472" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -10315,7 +10335,7 @@
       <c r="Q472" s="2"/>
       <c r="R472" s="2"/>
     </row>
-    <row r="473" ht="13.5" customHeight="1">
+    <row r="473" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -10335,7 +10355,7 @@
       <c r="Q473" s="2"/>
       <c r="R473" s="2"/>
     </row>
-    <row r="474" ht="13.5" customHeight="1">
+    <row r="474" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -10355,7 +10375,7 @@
       <c r="Q474" s="2"/>
       <c r="R474" s="2"/>
     </row>
-    <row r="475" ht="13.5" customHeight="1">
+    <row r="475" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -10375,7 +10395,7 @@
       <c r="Q475" s="2"/>
       <c r="R475" s="2"/>
     </row>
-    <row r="476" ht="13.5" customHeight="1">
+    <row r="476" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -10395,7 +10415,7 @@
       <c r="Q476" s="2"/>
       <c r="R476" s="2"/>
     </row>
-    <row r="477" ht="13.5" customHeight="1">
+    <row r="477" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -10415,7 +10435,7 @@
       <c r="Q477" s="2"/>
       <c r="R477" s="2"/>
     </row>
-    <row r="478" ht="13.5" customHeight="1">
+    <row r="478" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -10435,7 +10455,7 @@
       <c r="Q478" s="2"/>
       <c r="R478" s="2"/>
     </row>
-    <row r="479" ht="13.5" customHeight="1">
+    <row r="479" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -10455,7 +10475,7 @@
       <c r="Q479" s="2"/>
       <c r="R479" s="2"/>
     </row>
-    <row r="480" ht="13.5" customHeight="1">
+    <row r="480" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -10475,7 +10495,7 @@
       <c r="Q480" s="2"/>
       <c r="R480" s="2"/>
     </row>
-    <row r="481" ht="13.5" customHeight="1">
+    <row r="481" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -10495,7 +10515,7 @@
       <c r="Q481" s="2"/>
       <c r="R481" s="2"/>
     </row>
-    <row r="482" ht="13.5" customHeight="1">
+    <row r="482" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -10515,7 +10535,7 @@
       <c r="Q482" s="2"/>
       <c r="R482" s="2"/>
     </row>
-    <row r="483" ht="13.5" customHeight="1">
+    <row r="483" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -10535,7 +10555,7 @@
       <c r="Q483" s="2"/>
       <c r="R483" s="2"/>
     </row>
-    <row r="484" ht="13.5" customHeight="1">
+    <row r="484" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -10555,7 +10575,7 @@
       <c r="Q484" s="2"/>
       <c r="R484" s="2"/>
     </row>
-    <row r="485" ht="13.5" customHeight="1">
+    <row r="485" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -10575,7 +10595,7 @@
       <c r="Q485" s="2"/>
       <c r="R485" s="2"/>
     </row>
-    <row r="486" ht="13.5" customHeight="1">
+    <row r="486" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -10595,7 +10615,7 @@
       <c r="Q486" s="2"/>
       <c r="R486" s="2"/>
     </row>
-    <row r="487" ht="13.5" customHeight="1">
+    <row r="487" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -10615,7 +10635,7 @@
       <c r="Q487" s="2"/>
       <c r="R487" s="2"/>
     </row>
-    <row r="488" ht="13.5" customHeight="1">
+    <row r="488" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -10635,7 +10655,7 @@
       <c r="Q488" s="2"/>
       <c r="R488" s="2"/>
     </row>
-    <row r="489" ht="13.5" customHeight="1">
+    <row r="489" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -10655,7 +10675,7 @@
       <c r="Q489" s="2"/>
       <c r="R489" s="2"/>
     </row>
-    <row r="490" ht="13.5" customHeight="1">
+    <row r="490" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -10675,7 +10695,7 @@
       <c r="Q490" s="2"/>
       <c r="R490" s="2"/>
     </row>
-    <row r="491" ht="13.5" customHeight="1">
+    <row r="491" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -10695,7 +10715,7 @@
       <c r="Q491" s="2"/>
       <c r="R491" s="2"/>
     </row>
-    <row r="492" ht="13.5" customHeight="1">
+    <row r="492" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -10715,7 +10735,7 @@
       <c r="Q492" s="2"/>
       <c r="R492" s="2"/>
     </row>
-    <row r="493" ht="13.5" customHeight="1">
+    <row r="493" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -10735,7 +10755,7 @@
       <c r="Q493" s="2"/>
       <c r="R493" s="2"/>
     </row>
-    <row r="494" ht="13.5" customHeight="1">
+    <row r="494" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -10755,7 +10775,7 @@
       <c r="Q494" s="2"/>
       <c r="R494" s="2"/>
     </row>
-    <row r="495" ht="13.5" customHeight="1">
+    <row r="495" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -10775,7 +10795,7 @@
       <c r="Q495" s="2"/>
       <c r="R495" s="2"/>
     </row>
-    <row r="496" ht="13.5" customHeight="1">
+    <row r="496" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -10795,7 +10815,7 @@
       <c r="Q496" s="2"/>
       <c r="R496" s="2"/>
     </row>
-    <row r="497" ht="13.5" customHeight="1">
+    <row r="497" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -10815,7 +10835,7 @@
       <c r="Q497" s="2"/>
       <c r="R497" s="2"/>
     </row>
-    <row r="498" ht="13.5" customHeight="1">
+    <row r="498" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -10835,7 +10855,7 @@
       <c r="Q498" s="2"/>
       <c r="R498" s="2"/>
     </row>
-    <row r="499" ht="13.5" customHeight="1">
+    <row r="499" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -10855,7 +10875,7 @@
       <c r="Q499" s="2"/>
       <c r="R499" s="2"/>
     </row>
-    <row r="500" ht="13.5" customHeight="1">
+    <row r="500" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -10875,7 +10895,7 @@
       <c r="Q500" s="2"/>
       <c r="R500" s="2"/>
     </row>
-    <row r="501" ht="13.5" customHeight="1">
+    <row r="501" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -10895,7 +10915,7 @@
       <c r="Q501" s="2"/>
       <c r="R501" s="2"/>
     </row>
-    <row r="502" ht="13.5" customHeight="1">
+    <row r="502" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -10915,7 +10935,7 @@
       <c r="Q502" s="2"/>
       <c r="R502" s="2"/>
     </row>
-    <row r="503" ht="13.5" customHeight="1">
+    <row r="503" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -10935,7 +10955,7 @@
       <c r="Q503" s="2"/>
       <c r="R503" s="2"/>
     </row>
-    <row r="504" ht="13.5" customHeight="1">
+    <row r="504" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -10955,7 +10975,7 @@
       <c r="Q504" s="2"/>
       <c r="R504" s="2"/>
     </row>
-    <row r="505" ht="13.5" customHeight="1">
+    <row r="505" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -10975,7 +10995,7 @@
       <c r="Q505" s="2"/>
       <c r="R505" s="2"/>
     </row>
-    <row r="506" ht="13.5" customHeight="1">
+    <row r="506" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -10995,7 +11015,7 @@
       <c r="Q506" s="2"/>
       <c r="R506" s="2"/>
     </row>
-    <row r="507" ht="13.5" customHeight="1">
+    <row r="507" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -11015,7 +11035,7 @@
       <c r="Q507" s="2"/>
       <c r="R507" s="2"/>
     </row>
-    <row r="508" ht="13.5" customHeight="1">
+    <row r="508" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -11035,7 +11055,7 @@
       <c r="Q508" s="2"/>
       <c r="R508" s="2"/>
     </row>
-    <row r="509" ht="13.5" customHeight="1">
+    <row r="509" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -11055,7 +11075,7 @@
       <c r="Q509" s="2"/>
       <c r="R509" s="2"/>
     </row>
-    <row r="510" ht="13.5" customHeight="1">
+    <row r="510" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -11075,7 +11095,7 @@
       <c r="Q510" s="2"/>
       <c r="R510" s="2"/>
     </row>
-    <row r="511" ht="13.5" customHeight="1">
+    <row r="511" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -11095,7 +11115,7 @@
       <c r="Q511" s="2"/>
       <c r="R511" s="2"/>
     </row>
-    <row r="512" ht="13.5" customHeight="1">
+    <row r="512" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -11115,7 +11135,7 @@
       <c r="Q512" s="2"/>
       <c r="R512" s="2"/>
     </row>
-    <row r="513" ht="13.5" customHeight="1">
+    <row r="513" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -11135,7 +11155,7 @@
       <c r="Q513" s="2"/>
       <c r="R513" s="2"/>
     </row>
-    <row r="514" ht="13.5" customHeight="1">
+    <row r="514" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -11155,7 +11175,7 @@
       <c r="Q514" s="2"/>
       <c r="R514" s="2"/>
     </row>
-    <row r="515" ht="13.5" customHeight="1">
+    <row r="515" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -11175,7 +11195,7 @@
       <c r="Q515" s="2"/>
       <c r="R515" s="2"/>
     </row>
-    <row r="516" ht="13.5" customHeight="1">
+    <row r="516" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -11195,7 +11215,7 @@
       <c r="Q516" s="2"/>
       <c r="R516" s="2"/>
     </row>
-    <row r="517" ht="13.5" customHeight="1">
+    <row r="517" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -11215,7 +11235,7 @@
       <c r="Q517" s="2"/>
       <c r="R517" s="2"/>
     </row>
-    <row r="518" ht="13.5" customHeight="1">
+    <row r="518" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -11235,7 +11255,7 @@
       <c r="Q518" s="2"/>
       <c r="R518" s="2"/>
     </row>
-    <row r="519" ht="13.5" customHeight="1">
+    <row r="519" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -11255,7 +11275,7 @@
       <c r="Q519" s="2"/>
       <c r="R519" s="2"/>
     </row>
-    <row r="520" ht="13.5" customHeight="1">
+    <row r="520" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -11275,7 +11295,7 @@
       <c r="Q520" s="2"/>
       <c r="R520" s="2"/>
     </row>
-    <row r="521" ht="13.5" customHeight="1">
+    <row r="521" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -11295,7 +11315,7 @@
       <c r="Q521" s="2"/>
       <c r="R521" s="2"/>
     </row>
-    <row r="522" ht="13.5" customHeight="1">
+    <row r="522" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -11315,7 +11335,7 @@
       <c r="Q522" s="2"/>
       <c r="R522" s="2"/>
     </row>
-    <row r="523" ht="13.5" customHeight="1">
+    <row r="523" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -11335,7 +11355,7 @@
       <c r="Q523" s="2"/>
       <c r="R523" s="2"/>
     </row>
-    <row r="524" ht="13.5" customHeight="1">
+    <row r="524" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -11355,7 +11375,7 @@
       <c r="Q524" s="2"/>
       <c r="R524" s="2"/>
     </row>
-    <row r="525" ht="13.5" customHeight="1">
+    <row r="525" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -11375,7 +11395,7 @@
       <c r="Q525" s="2"/>
       <c r="R525" s="2"/>
     </row>
-    <row r="526" ht="13.5" customHeight="1">
+    <row r="526" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -11395,7 +11415,7 @@
       <c r="Q526" s="2"/>
       <c r="R526" s="2"/>
     </row>
-    <row r="527" ht="13.5" customHeight="1">
+    <row r="527" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -11415,7 +11435,7 @@
       <c r="Q527" s="2"/>
       <c r="R527" s="2"/>
     </row>
-    <row r="528" ht="13.5" customHeight="1">
+    <row r="528" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -11435,7 +11455,7 @@
       <c r="Q528" s="2"/>
       <c r="R528" s="2"/>
     </row>
-    <row r="529" ht="13.5" customHeight="1">
+    <row r="529" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -11455,7 +11475,7 @@
       <c r="Q529" s="2"/>
       <c r="R529" s="2"/>
     </row>
-    <row r="530" ht="13.5" customHeight="1">
+    <row r="530" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -11475,7 +11495,7 @@
       <c r="Q530" s="2"/>
       <c r="R530" s="2"/>
     </row>
-    <row r="531" ht="13.5" customHeight="1">
+    <row r="531" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -11495,7 +11515,7 @@
       <c r="Q531" s="2"/>
       <c r="R531" s="2"/>
     </row>
-    <row r="532" ht="13.5" customHeight="1">
+    <row r="532" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -11515,7 +11535,7 @@
       <c r="Q532" s="2"/>
       <c r="R532" s="2"/>
     </row>
-    <row r="533" ht="13.5" customHeight="1">
+    <row r="533" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -11535,7 +11555,7 @@
       <c r="Q533" s="2"/>
       <c r="R533" s="2"/>
     </row>
-    <row r="534" ht="13.5" customHeight="1">
+    <row r="534" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -11555,7 +11575,7 @@
       <c r="Q534" s="2"/>
       <c r="R534" s="2"/>
     </row>
-    <row r="535" ht="13.5" customHeight="1">
+    <row r="535" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -11575,7 +11595,7 @@
       <c r="Q535" s="2"/>
       <c r="R535" s="2"/>
     </row>
-    <row r="536" ht="13.5" customHeight="1">
+    <row r="536" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -11595,7 +11615,7 @@
       <c r="Q536" s="2"/>
       <c r="R536" s="2"/>
     </row>
-    <row r="537" ht="13.5" customHeight="1">
+    <row r="537" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -11615,7 +11635,7 @@
       <c r="Q537" s="2"/>
       <c r="R537" s="2"/>
     </row>
-    <row r="538" ht="13.5" customHeight="1">
+    <row r="538" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -11635,7 +11655,7 @@
       <c r="Q538" s="2"/>
       <c r="R538" s="2"/>
     </row>
-    <row r="539" ht="13.5" customHeight="1">
+    <row r="539" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -11655,7 +11675,7 @@
       <c r="Q539" s="2"/>
       <c r="R539" s="2"/>
     </row>
-    <row r="540" ht="13.5" customHeight="1">
+    <row r="540" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -11675,7 +11695,7 @@
       <c r="Q540" s="2"/>
       <c r="R540" s="2"/>
     </row>
-    <row r="541" ht="13.5" customHeight="1">
+    <row r="541" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -11695,7 +11715,7 @@
       <c r="Q541" s="2"/>
       <c r="R541" s="2"/>
     </row>
-    <row r="542" ht="13.5" customHeight="1">
+    <row r="542" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -11715,7 +11735,7 @@
       <c r="Q542" s="2"/>
       <c r="R542" s="2"/>
     </row>
-    <row r="543" ht="13.5" customHeight="1">
+    <row r="543" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -11735,7 +11755,7 @@
       <c r="Q543" s="2"/>
       <c r="R543" s="2"/>
     </row>
-    <row r="544" ht="13.5" customHeight="1">
+    <row r="544" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -11755,7 +11775,7 @@
       <c r="Q544" s="2"/>
       <c r="R544" s="2"/>
     </row>
-    <row r="545" ht="13.5" customHeight="1">
+    <row r="545" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -11775,7 +11795,7 @@
       <c r="Q545" s="2"/>
       <c r="R545" s="2"/>
     </row>
-    <row r="546" ht="13.5" customHeight="1">
+    <row r="546" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -11795,7 +11815,7 @@
       <c r="Q546" s="2"/>
       <c r="R546" s="2"/>
     </row>
-    <row r="547" ht="13.5" customHeight="1">
+    <row r="547" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -11815,7 +11835,7 @@
       <c r="Q547" s="2"/>
       <c r="R547" s="2"/>
     </row>
-    <row r="548" ht="13.5" customHeight="1">
+    <row r="548" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -11835,7 +11855,7 @@
       <c r="Q548" s="2"/>
       <c r="R548" s="2"/>
     </row>
-    <row r="549" ht="13.5" customHeight="1">
+    <row r="549" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -11855,7 +11875,7 @@
       <c r="Q549" s="2"/>
       <c r="R549" s="2"/>
     </row>
-    <row r="550" ht="13.5" customHeight="1">
+    <row r="550" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -11875,7 +11895,7 @@
       <c r="Q550" s="2"/>
       <c r="R550" s="2"/>
     </row>
-    <row r="551" ht="13.5" customHeight="1">
+    <row r="551" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -11895,7 +11915,7 @@
       <c r="Q551" s="2"/>
       <c r="R551" s="2"/>
     </row>
-    <row r="552" ht="13.5" customHeight="1">
+    <row r="552" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -11915,7 +11935,7 @@
       <c r="Q552" s="2"/>
       <c r="R552" s="2"/>
     </row>
-    <row r="553" ht="13.5" customHeight="1">
+    <row r="553" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -11935,7 +11955,7 @@
       <c r="Q553" s="2"/>
       <c r="R553" s="2"/>
     </row>
-    <row r="554" ht="13.5" customHeight="1">
+    <row r="554" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -11955,7 +11975,7 @@
       <c r="Q554" s="2"/>
       <c r="R554" s="2"/>
     </row>
-    <row r="555" ht="13.5" customHeight="1">
+    <row r="555" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -11975,7 +11995,7 @@
       <c r="Q555" s="2"/>
       <c r="R555" s="2"/>
     </row>
-    <row r="556" ht="13.5" customHeight="1">
+    <row r="556" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -11995,7 +12015,7 @@
       <c r="Q556" s="2"/>
       <c r="R556" s="2"/>
     </row>
-    <row r="557" ht="13.5" customHeight="1">
+    <row r="557" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -12015,7 +12035,7 @@
       <c r="Q557" s="2"/>
       <c r="R557" s="2"/>
     </row>
-    <row r="558" ht="13.5" customHeight="1">
+    <row r="558" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -12035,7 +12055,7 @@
       <c r="Q558" s="2"/>
       <c r="R558" s="2"/>
     </row>
-    <row r="559" ht="13.5" customHeight="1">
+    <row r="559" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -12055,7 +12075,7 @@
       <c r="Q559" s="2"/>
       <c r="R559" s="2"/>
     </row>
-    <row r="560" ht="13.5" customHeight="1">
+    <row r="560" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -12075,7 +12095,7 @@
       <c r="Q560" s="2"/>
       <c r="R560" s="2"/>
     </row>
-    <row r="561" ht="13.5" customHeight="1">
+    <row r="561" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -12095,7 +12115,7 @@
       <c r="Q561" s="2"/>
       <c r="R561" s="2"/>
     </row>
-    <row r="562" ht="13.5" customHeight="1">
+    <row r="562" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -12115,7 +12135,7 @@
       <c r="Q562" s="2"/>
       <c r="R562" s="2"/>
     </row>
-    <row r="563" ht="13.5" customHeight="1">
+    <row r="563" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -12135,7 +12155,7 @@
       <c r="Q563" s="2"/>
       <c r="R563" s="2"/>
     </row>
-    <row r="564" ht="13.5" customHeight="1">
+    <row r="564" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -12155,7 +12175,7 @@
       <c r="Q564" s="2"/>
       <c r="R564" s="2"/>
     </row>
-    <row r="565" ht="13.5" customHeight="1">
+    <row r="565" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -12175,7 +12195,7 @@
       <c r="Q565" s="2"/>
       <c r="R565" s="2"/>
     </row>
-    <row r="566" ht="13.5" customHeight="1">
+    <row r="566" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -12195,7 +12215,7 @@
       <c r="Q566" s="2"/>
       <c r="R566" s="2"/>
     </row>
-    <row r="567" ht="13.5" customHeight="1">
+    <row r="567" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -12215,7 +12235,7 @@
       <c r="Q567" s="2"/>
       <c r="R567" s="2"/>
     </row>
-    <row r="568" ht="13.5" customHeight="1">
+    <row r="568" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -12235,7 +12255,7 @@
       <c r="Q568" s="2"/>
       <c r="R568" s="2"/>
     </row>
-    <row r="569" ht="13.5" customHeight="1">
+    <row r="569" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -12255,7 +12275,7 @@
       <c r="Q569" s="2"/>
       <c r="R569" s="2"/>
     </row>
-    <row r="570" ht="13.5" customHeight="1">
+    <row r="570" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -12275,7 +12295,7 @@
       <c r="Q570" s="2"/>
       <c r="R570" s="2"/>
     </row>
-    <row r="571" ht="13.5" customHeight="1">
+    <row r="571" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -12295,7 +12315,7 @@
       <c r="Q571" s="2"/>
       <c r="R571" s="2"/>
     </row>
-    <row r="572" ht="13.5" customHeight="1">
+    <row r="572" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -12315,7 +12335,7 @@
       <c r="Q572" s="2"/>
       <c r="R572" s="2"/>
     </row>
-    <row r="573" ht="13.5" customHeight="1">
+    <row r="573" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -12335,7 +12355,7 @@
       <c r="Q573" s="2"/>
       <c r="R573" s="2"/>
     </row>
-    <row r="574" ht="13.5" customHeight="1">
+    <row r="574" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -12355,7 +12375,7 @@
       <c r="Q574" s="2"/>
       <c r="R574" s="2"/>
     </row>
-    <row r="575" ht="13.5" customHeight="1">
+    <row r="575" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -12375,7 +12395,7 @@
       <c r="Q575" s="2"/>
       <c r="R575" s="2"/>
     </row>
-    <row r="576" ht="13.5" customHeight="1">
+    <row r="576" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -12395,7 +12415,7 @@
       <c r="Q576" s="2"/>
       <c r="R576" s="2"/>
     </row>
-    <row r="577" ht="13.5" customHeight="1">
+    <row r="577" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -12415,7 +12435,7 @@
       <c r="Q577" s="2"/>
       <c r="R577" s="2"/>
     </row>
-    <row r="578" ht="13.5" customHeight="1">
+    <row r="578" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -12435,7 +12455,7 @@
       <c r="Q578" s="2"/>
       <c r="R578" s="2"/>
     </row>
-    <row r="579" ht="13.5" customHeight="1">
+    <row r="579" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -12455,7 +12475,7 @@
       <c r="Q579" s="2"/>
       <c r="R579" s="2"/>
     </row>
-    <row r="580" ht="13.5" customHeight="1">
+    <row r="580" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -12475,7 +12495,7 @@
       <c r="Q580" s="2"/>
       <c r="R580" s="2"/>
     </row>
-    <row r="581" ht="13.5" customHeight="1">
+    <row r="581" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -12495,7 +12515,7 @@
       <c r="Q581" s="2"/>
       <c r="R581" s="2"/>
     </row>
-    <row r="582" ht="13.5" customHeight="1">
+    <row r="582" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -12515,7 +12535,7 @@
       <c r="Q582" s="2"/>
       <c r="R582" s="2"/>
     </row>
-    <row r="583" ht="13.5" customHeight="1">
+    <row r="583" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -12535,7 +12555,7 @@
       <c r="Q583" s="2"/>
       <c r="R583" s="2"/>
     </row>
-    <row r="584" ht="13.5" customHeight="1">
+    <row r="584" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -12555,7 +12575,7 @@
       <c r="Q584" s="2"/>
       <c r="R584" s="2"/>
     </row>
-    <row r="585" ht="13.5" customHeight="1">
+    <row r="585" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -12575,7 +12595,7 @@
       <c r="Q585" s="2"/>
       <c r="R585" s="2"/>
     </row>
-    <row r="586" ht="13.5" customHeight="1">
+    <row r="586" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -12595,7 +12615,7 @@
       <c r="Q586" s="2"/>
       <c r="R586" s="2"/>
     </row>
-    <row r="587" ht="13.5" customHeight="1">
+    <row r="587" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -12615,7 +12635,7 @@
       <c r="Q587" s="2"/>
       <c r="R587" s="2"/>
     </row>
-    <row r="588" ht="13.5" customHeight="1">
+    <row r="588" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -12635,7 +12655,7 @@
       <c r="Q588" s="2"/>
       <c r="R588" s="2"/>
     </row>
-    <row r="589" ht="13.5" customHeight="1">
+    <row r="589" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -12655,7 +12675,7 @@
       <c r="Q589" s="2"/>
       <c r="R589" s="2"/>
     </row>
-    <row r="590" ht="13.5" customHeight="1">
+    <row r="590" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -12675,7 +12695,7 @@
       <c r="Q590" s="2"/>
       <c r="R590" s="2"/>
     </row>
-    <row r="591" ht="13.5" customHeight="1">
+    <row r="591" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -12695,7 +12715,7 @@
       <c r="Q591" s="2"/>
       <c r="R591" s="2"/>
     </row>
-    <row r="592" ht="13.5" customHeight="1">
+    <row r="592" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -12715,7 +12735,7 @@
       <c r="Q592" s="2"/>
       <c r="R592" s="2"/>
     </row>
-    <row r="593" ht="13.5" customHeight="1">
+    <row r="593" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -12735,7 +12755,7 @@
       <c r="Q593" s="2"/>
       <c r="R593" s="2"/>
     </row>
-    <row r="594" ht="13.5" customHeight="1">
+    <row r="594" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -12755,7 +12775,7 @@
       <c r="Q594" s="2"/>
       <c r="R594" s="2"/>
     </row>
-    <row r="595" ht="13.5" customHeight="1">
+    <row r="595" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -12775,7 +12795,7 @@
       <c r="Q595" s="2"/>
       <c r="R595" s="2"/>
     </row>
-    <row r="596" ht="13.5" customHeight="1">
+    <row r="596" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -12795,7 +12815,7 @@
       <c r="Q596" s="2"/>
       <c r="R596" s="2"/>
     </row>
-    <row r="597" ht="13.5" customHeight="1">
+    <row r="597" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -12815,7 +12835,7 @@
       <c r="Q597" s="2"/>
       <c r="R597" s="2"/>
     </row>
-    <row r="598" ht="13.5" customHeight="1">
+    <row r="598" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -12835,7 +12855,7 @@
       <c r="Q598" s="2"/>
       <c r="R598" s="2"/>
     </row>
-    <row r="599" ht="13.5" customHeight="1">
+    <row r="599" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -12855,7 +12875,7 @@
       <c r="Q599" s="2"/>
       <c r="R599" s="2"/>
     </row>
-    <row r="600" ht="13.5" customHeight="1">
+    <row r="600" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -12875,7 +12895,7 @@
       <c r="Q600" s="2"/>
       <c r="R600" s="2"/>
     </row>
-    <row r="601" ht="13.5" customHeight="1">
+    <row r="601" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -12895,7 +12915,7 @@
       <c r="Q601" s="2"/>
       <c r="R601" s="2"/>
     </row>
-    <row r="602" ht="13.5" customHeight="1">
+    <row r="602" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -12915,7 +12935,7 @@
       <c r="Q602" s="2"/>
       <c r="R602" s="2"/>
     </row>
-    <row r="603" ht="13.5" customHeight="1">
+    <row r="603" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -12935,7 +12955,7 @@
       <c r="Q603" s="2"/>
       <c r="R603" s="2"/>
     </row>
-    <row r="604" ht="13.5" customHeight="1">
+    <row r="604" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -12955,7 +12975,7 @@
       <c r="Q604" s="2"/>
       <c r="R604" s="2"/>
     </row>
-    <row r="605" ht="13.5" customHeight="1">
+    <row r="605" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -12975,7 +12995,7 @@
       <c r="Q605" s="2"/>
       <c r="R605" s="2"/>
     </row>
-    <row r="606" ht="13.5" customHeight="1">
+    <row r="606" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -12995,7 +13015,7 @@
       <c r="Q606" s="2"/>
       <c r="R606" s="2"/>
     </row>
-    <row r="607" ht="13.5" customHeight="1">
+    <row r="607" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -13015,7 +13035,7 @@
       <c r="Q607" s="2"/>
       <c r="R607" s="2"/>
     </row>
-    <row r="608" ht="13.5" customHeight="1">
+    <row r="608" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -13035,7 +13055,7 @@
       <c r="Q608" s="2"/>
       <c r="R608" s="2"/>
     </row>
-    <row r="609" ht="13.5" customHeight="1">
+    <row r="609" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -13055,7 +13075,7 @@
       <c r="Q609" s="2"/>
       <c r="R609" s="2"/>
     </row>
-    <row r="610" ht="13.5" customHeight="1">
+    <row r="610" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -13075,7 +13095,7 @@
       <c r="Q610" s="2"/>
       <c r="R610" s="2"/>
     </row>
-    <row r="611" ht="13.5" customHeight="1">
+    <row r="611" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -13095,7 +13115,7 @@
       <c r="Q611" s="2"/>
       <c r="R611" s="2"/>
     </row>
-    <row r="612" ht="13.5" customHeight="1">
+    <row r="612" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -13115,7 +13135,7 @@
       <c r="Q612" s="2"/>
       <c r="R612" s="2"/>
     </row>
-    <row r="613" ht="13.5" customHeight="1">
+    <row r="613" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -13135,7 +13155,7 @@
       <c r="Q613" s="2"/>
       <c r="R613" s="2"/>
     </row>
-    <row r="614" ht="13.5" customHeight="1">
+    <row r="614" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -13155,7 +13175,7 @@
       <c r="Q614" s="2"/>
       <c r="R614" s="2"/>
     </row>
-    <row r="615" ht="13.5" customHeight="1">
+    <row r="615" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -13175,7 +13195,7 @@
       <c r="Q615" s="2"/>
       <c r="R615" s="2"/>
     </row>
-    <row r="616" ht="13.5" customHeight="1">
+    <row r="616" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -13195,7 +13215,7 @@
       <c r="Q616" s="2"/>
       <c r="R616" s="2"/>
     </row>
-    <row r="617" ht="13.5" customHeight="1">
+    <row r="617" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -13215,7 +13235,7 @@
       <c r="Q617" s="2"/>
       <c r="R617" s="2"/>
     </row>
-    <row r="618" ht="13.5" customHeight="1">
+    <row r="618" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -13235,7 +13255,7 @@
       <c r="Q618" s="2"/>
       <c r="R618" s="2"/>
     </row>
-    <row r="619" ht="13.5" customHeight="1">
+    <row r="619" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -13255,7 +13275,7 @@
       <c r="Q619" s="2"/>
       <c r="R619" s="2"/>
     </row>
-    <row r="620" ht="13.5" customHeight="1">
+    <row r="620" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -13275,7 +13295,7 @@
       <c r="Q620" s="2"/>
       <c r="R620" s="2"/>
     </row>
-    <row r="621" ht="13.5" customHeight="1">
+    <row r="621" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -13295,7 +13315,7 @@
       <c r="Q621" s="2"/>
       <c r="R621" s="2"/>
     </row>
-    <row r="622" ht="13.5" customHeight="1">
+    <row r="622" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -13315,7 +13335,7 @@
       <c r="Q622" s="2"/>
       <c r="R622" s="2"/>
     </row>
-    <row r="623" ht="13.5" customHeight="1">
+    <row r="623" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -13335,7 +13355,7 @@
       <c r="Q623" s="2"/>
       <c r="R623" s="2"/>
     </row>
-    <row r="624" ht="13.5" customHeight="1">
+    <row r="624" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -13355,7 +13375,7 @@
       <c r="Q624" s="2"/>
       <c r="R624" s="2"/>
     </row>
-    <row r="625" ht="13.5" customHeight="1">
+    <row r="625" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -13375,7 +13395,7 @@
       <c r="Q625" s="2"/>
       <c r="R625" s="2"/>
     </row>
-    <row r="626" ht="13.5" customHeight="1">
+    <row r="626" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -13395,7 +13415,7 @@
       <c r="Q626" s="2"/>
       <c r="R626" s="2"/>
     </row>
-    <row r="627" ht="13.5" customHeight="1">
+    <row r="627" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -13415,7 +13435,7 @@
       <c r="Q627" s="2"/>
       <c r="R627" s="2"/>
     </row>
-    <row r="628" ht="13.5" customHeight="1">
+    <row r="628" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -13435,7 +13455,7 @@
       <c r="Q628" s="2"/>
       <c r="R628" s="2"/>
     </row>
-    <row r="629" ht="13.5" customHeight="1">
+    <row r="629" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -13455,7 +13475,7 @@
       <c r="Q629" s="2"/>
       <c r="R629" s="2"/>
     </row>
-    <row r="630" ht="13.5" customHeight="1">
+    <row r="630" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -13475,7 +13495,7 @@
       <c r="Q630" s="2"/>
       <c r="R630" s="2"/>
     </row>
-    <row r="631" ht="13.5" customHeight="1">
+    <row r="631" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -13495,7 +13515,7 @@
       <c r="Q631" s="2"/>
       <c r="R631" s="2"/>
     </row>
-    <row r="632" ht="13.5" customHeight="1">
+    <row r="632" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -13515,7 +13535,7 @@
       <c r="Q632" s="2"/>
       <c r="R632" s="2"/>
     </row>
-    <row r="633" ht="13.5" customHeight="1">
+    <row r="633" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -13535,7 +13555,7 @@
       <c r="Q633" s="2"/>
       <c r="R633" s="2"/>
     </row>
-    <row r="634" ht="13.5" customHeight="1">
+    <row r="634" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -13555,7 +13575,7 @@
       <c r="Q634" s="2"/>
       <c r="R634" s="2"/>
     </row>
-    <row r="635" ht="13.5" customHeight="1">
+    <row r="635" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -13575,7 +13595,7 @@
       <c r="Q635" s="2"/>
       <c r="R635" s="2"/>
     </row>
-    <row r="636" ht="13.5" customHeight="1">
+    <row r="636" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -13595,7 +13615,7 @@
       <c r="Q636" s="2"/>
       <c r="R636" s="2"/>
     </row>
-    <row r="637" ht="13.5" customHeight="1">
+    <row r="637" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -13615,7 +13635,7 @@
       <c r="Q637" s="2"/>
       <c r="R637" s="2"/>
     </row>
-    <row r="638" ht="13.5" customHeight="1">
+    <row r="638" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -13635,7 +13655,7 @@
       <c r="Q638" s="2"/>
       <c r="R638" s="2"/>
     </row>
-    <row r="639" ht="13.5" customHeight="1">
+    <row r="639" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -13655,7 +13675,7 @@
       <c r="Q639" s="2"/>
       <c r="R639" s="2"/>
     </row>
-    <row r="640" ht="13.5" customHeight="1">
+    <row r="640" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -13675,7 +13695,7 @@
       <c r="Q640" s="2"/>
       <c r="R640" s="2"/>
     </row>
-    <row r="641" ht="13.5" customHeight="1">
+    <row r="641" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -13695,7 +13715,7 @@
       <c r="Q641" s="2"/>
       <c r="R641" s="2"/>
     </row>
-    <row r="642" ht="13.5" customHeight="1">
+    <row r="642" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -13715,7 +13735,7 @@
       <c r="Q642" s="2"/>
       <c r="R642" s="2"/>
     </row>
-    <row r="643" ht="13.5" customHeight="1">
+    <row r="643" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -13735,7 +13755,7 @@
       <c r="Q643" s="2"/>
       <c r="R643" s="2"/>
     </row>
-    <row r="644" ht="13.5" customHeight="1">
+    <row r="644" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -13755,7 +13775,7 @@
       <c r="Q644" s="2"/>
       <c r="R644" s="2"/>
     </row>
-    <row r="645" ht="13.5" customHeight="1">
+    <row r="645" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -13775,7 +13795,7 @@
       <c r="Q645" s="2"/>
       <c r="R645" s="2"/>
     </row>
-    <row r="646" ht="13.5" customHeight="1">
+    <row r="646" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -13795,7 +13815,7 @@
       <c r="Q646" s="2"/>
       <c r="R646" s="2"/>
     </row>
-    <row r="647" ht="13.5" customHeight="1">
+    <row r="647" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -13815,7 +13835,7 @@
       <c r="Q647" s="2"/>
       <c r="R647" s="2"/>
     </row>
-    <row r="648" ht="13.5" customHeight="1">
+    <row r="648" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -13835,7 +13855,7 @@
       <c r="Q648" s="2"/>
       <c r="R648" s="2"/>
     </row>
-    <row r="649" ht="13.5" customHeight="1">
+    <row r="649" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -13855,7 +13875,7 @@
       <c r="Q649" s="2"/>
       <c r="R649" s="2"/>
     </row>
-    <row r="650" ht="13.5" customHeight="1">
+    <row r="650" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -13875,7 +13895,7 @@
       <c r="Q650" s="2"/>
       <c r="R650" s="2"/>
     </row>
-    <row r="651" ht="13.5" customHeight="1">
+    <row r="651" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -13895,7 +13915,7 @@
       <c r="Q651" s="2"/>
       <c r="R651" s="2"/>
     </row>
-    <row r="652" ht="13.5" customHeight="1">
+    <row r="652" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -13915,7 +13935,7 @@
       <c r="Q652" s="2"/>
       <c r="R652" s="2"/>
     </row>
-    <row r="653" ht="13.5" customHeight="1">
+    <row r="653" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -13935,7 +13955,7 @@
       <c r="Q653" s="2"/>
       <c r="R653" s="2"/>
     </row>
-    <row r="654" ht="13.5" customHeight="1">
+    <row r="654" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -13955,7 +13975,7 @@
       <c r="Q654" s="2"/>
       <c r="R654" s="2"/>
     </row>
-    <row r="655" ht="13.5" customHeight="1">
+    <row r="655" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -13975,7 +13995,7 @@
       <c r="Q655" s="2"/>
       <c r="R655" s="2"/>
     </row>
-    <row r="656" ht="13.5" customHeight="1">
+    <row r="656" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -13995,7 +14015,7 @@
       <c r="Q656" s="2"/>
       <c r="R656" s="2"/>
     </row>
-    <row r="657" ht="13.5" customHeight="1">
+    <row r="657" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -14015,7 +14035,7 @@
       <c r="Q657" s="2"/>
       <c r="R657" s="2"/>
     </row>
-    <row r="658" ht="13.5" customHeight="1">
+    <row r="658" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -14035,7 +14055,7 @@
       <c r="Q658" s="2"/>
       <c r="R658" s="2"/>
     </row>
-    <row r="659" ht="13.5" customHeight="1">
+    <row r="659" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -14055,7 +14075,7 @@
       <c r="Q659" s="2"/>
       <c r="R659" s="2"/>
     </row>
-    <row r="660" ht="13.5" customHeight="1">
+    <row r="660" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -14075,7 +14095,7 @@
       <c r="Q660" s="2"/>
       <c r="R660" s="2"/>
     </row>
-    <row r="661" ht="13.5" customHeight="1">
+    <row r="661" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -14095,7 +14115,7 @@
       <c r="Q661" s="2"/>
       <c r="R661" s="2"/>
     </row>
-    <row r="662" ht="13.5" customHeight="1">
+    <row r="662" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -14115,7 +14135,7 @@
       <c r="Q662" s="2"/>
       <c r="R662" s="2"/>
     </row>
-    <row r="663" ht="13.5" customHeight="1">
+    <row r="663" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -14135,7 +14155,7 @@
       <c r="Q663" s="2"/>
       <c r="R663" s="2"/>
     </row>
-    <row r="664" ht="13.5" customHeight="1">
+    <row r="664" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -14155,7 +14175,7 @@
       <c r="Q664" s="2"/>
       <c r="R664" s="2"/>
     </row>
-    <row r="665" ht="13.5" customHeight="1">
+    <row r="665" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -14175,7 +14195,7 @@
       <c r="Q665" s="2"/>
       <c r="R665" s="2"/>
     </row>
-    <row r="666" ht="13.5" customHeight="1">
+    <row r="666" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -14195,7 +14215,7 @@
       <c r="Q666" s="2"/>
       <c r="R666" s="2"/>
     </row>
-    <row r="667" ht="13.5" customHeight="1">
+    <row r="667" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -14215,7 +14235,7 @@
       <c r="Q667" s="2"/>
       <c r="R667" s="2"/>
     </row>
-    <row r="668" ht="13.5" customHeight="1">
+    <row r="668" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -14235,7 +14255,7 @@
       <c r="Q668" s="2"/>
       <c r="R668" s="2"/>
     </row>
-    <row r="669" ht="13.5" customHeight="1">
+    <row r="669" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -14255,7 +14275,7 @@
       <c r="Q669" s="2"/>
       <c r="R669" s="2"/>
     </row>
-    <row r="670" ht="13.5" customHeight="1">
+    <row r="670" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -14275,7 +14295,7 @@
       <c r="Q670" s="2"/>
       <c r="R670" s="2"/>
     </row>
-    <row r="671" ht="13.5" customHeight="1">
+    <row r="671" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -14295,7 +14315,7 @@
       <c r="Q671" s="2"/>
       <c r="R671" s="2"/>
     </row>
-    <row r="672" ht="13.5" customHeight="1">
+    <row r="672" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -14315,7 +14335,7 @@
       <c r="Q672" s="2"/>
       <c r="R672" s="2"/>
     </row>
-    <row r="673" ht="13.5" customHeight="1">
+    <row r="673" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -14335,7 +14355,7 @@
       <c r="Q673" s="2"/>
       <c r="R673" s="2"/>
     </row>
-    <row r="674" ht="13.5" customHeight="1">
+    <row r="674" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -14355,7 +14375,7 @@
       <c r="Q674" s="2"/>
       <c r="R674" s="2"/>
     </row>
-    <row r="675" ht="13.5" customHeight="1">
+    <row r="675" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -14375,7 +14395,7 @@
       <c r="Q675" s="2"/>
       <c r="R675" s="2"/>
     </row>
-    <row r="676" ht="13.5" customHeight="1">
+    <row r="676" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -14395,7 +14415,7 @@
       <c r="Q676" s="2"/>
       <c r="R676" s="2"/>
     </row>
-    <row r="677" ht="13.5" customHeight="1">
+    <row r="677" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -14415,7 +14435,7 @@
       <c r="Q677" s="2"/>
       <c r="R677" s="2"/>
     </row>
-    <row r="678" ht="13.5" customHeight="1">
+    <row r="678" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -14435,7 +14455,7 @@
       <c r="Q678" s="2"/>
       <c r="R678" s="2"/>
     </row>
-    <row r="679" ht="13.5" customHeight="1">
+    <row r="679" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -14455,7 +14475,7 @@
       <c r="Q679" s="2"/>
       <c r="R679" s="2"/>
     </row>
-    <row r="680" ht="13.5" customHeight="1">
+    <row r="680" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -14475,7 +14495,7 @@
       <c r="Q680" s="2"/>
       <c r="R680" s="2"/>
     </row>
-    <row r="681" ht="13.5" customHeight="1">
+    <row r="681" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -14495,7 +14515,7 @@
       <c r="Q681" s="2"/>
       <c r="R681" s="2"/>
     </row>
-    <row r="682" ht="13.5" customHeight="1">
+    <row r="682" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -14515,7 +14535,7 @@
       <c r="Q682" s="2"/>
       <c r="R682" s="2"/>
     </row>
-    <row r="683" ht="13.5" customHeight="1">
+    <row r="683" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -14535,7 +14555,7 @@
       <c r="Q683" s="2"/>
       <c r="R683" s="2"/>
     </row>
-    <row r="684" ht="13.5" customHeight="1">
+    <row r="684" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -14555,7 +14575,7 @@
       <c r="Q684" s="2"/>
       <c r="R684" s="2"/>
     </row>
-    <row r="685" ht="13.5" customHeight="1">
+    <row r="685" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -14575,7 +14595,7 @@
       <c r="Q685" s="2"/>
       <c r="R685" s="2"/>
     </row>
-    <row r="686" ht="13.5" customHeight="1">
+    <row r="686" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -14595,7 +14615,7 @@
       <c r="Q686" s="2"/>
       <c r="R686" s="2"/>
     </row>
-    <row r="687" ht="13.5" customHeight="1">
+    <row r="687" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -14615,7 +14635,7 @@
       <c r="Q687" s="2"/>
       <c r="R687" s="2"/>
     </row>
-    <row r="688" ht="13.5" customHeight="1">
+    <row r="688" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -14635,7 +14655,7 @@
       <c r="Q688" s="2"/>
       <c r="R688" s="2"/>
     </row>
-    <row r="689" ht="13.5" customHeight="1">
+    <row r="689" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -14655,7 +14675,7 @@
       <c r="Q689" s="2"/>
       <c r="R689" s="2"/>
     </row>
-    <row r="690" ht="13.5" customHeight="1">
+    <row r="690" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -14675,7 +14695,7 @@
       <c r="Q690" s="2"/>
       <c r="R690" s="2"/>
     </row>
-    <row r="691" ht="13.5" customHeight="1">
+    <row r="691" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -14695,7 +14715,7 @@
       <c r="Q691" s="2"/>
       <c r="R691" s="2"/>
     </row>
-    <row r="692" ht="13.5" customHeight="1">
+    <row r="692" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -14715,7 +14735,7 @@
       <c r="Q692" s="2"/>
       <c r="R692" s="2"/>
     </row>
-    <row r="693" ht="13.5" customHeight="1">
+    <row r="693" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -14735,7 +14755,7 @@
       <c r="Q693" s="2"/>
       <c r="R693" s="2"/>
     </row>
-    <row r="694" ht="13.5" customHeight="1">
+    <row r="694" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -14755,7 +14775,7 @@
       <c r="Q694" s="2"/>
       <c r="R694" s="2"/>
     </row>
-    <row r="695" ht="13.5" customHeight="1">
+    <row r="695" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -14775,7 +14795,7 @@
       <c r="Q695" s="2"/>
       <c r="R695" s="2"/>
     </row>
-    <row r="696" ht="13.5" customHeight="1">
+    <row r="696" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -14795,7 +14815,7 @@
       <c r="Q696" s="2"/>
       <c r="R696" s="2"/>
     </row>
-    <row r="697" ht="13.5" customHeight="1">
+    <row r="697" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -14815,7 +14835,7 @@
       <c r="Q697" s="2"/>
       <c r="R697" s="2"/>
     </row>
-    <row r="698" ht="13.5" customHeight="1">
+    <row r="698" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -14835,7 +14855,7 @@
       <c r="Q698" s="2"/>
       <c r="R698" s="2"/>
     </row>
-    <row r="699" ht="13.5" customHeight="1">
+    <row r="699" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -14855,7 +14875,7 @@
       <c r="Q699" s="2"/>
       <c r="R699" s="2"/>
     </row>
-    <row r="700" ht="13.5" customHeight="1">
+    <row r="700" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -14875,7 +14895,7 @@
       <c r="Q700" s="2"/>
       <c r="R700" s="2"/>
     </row>
-    <row r="701" ht="13.5" customHeight="1">
+    <row r="701" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -14895,7 +14915,7 @@
       <c r="Q701" s="2"/>
       <c r="R701" s="2"/>
     </row>
-    <row r="702" ht="13.5" customHeight="1">
+    <row r="702" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -14915,7 +14935,7 @@
       <c r="Q702" s="2"/>
       <c r="R702" s="2"/>
     </row>
-    <row r="703" ht="13.5" customHeight="1">
+    <row r="703" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -14935,7 +14955,7 @@
       <c r="Q703" s="2"/>
       <c r="R703" s="2"/>
     </row>
-    <row r="704" ht="13.5" customHeight="1">
+    <row r="704" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -14955,7 +14975,7 @@
       <c r="Q704" s="2"/>
       <c r="R704" s="2"/>
     </row>
-    <row r="705" ht="13.5" customHeight="1">
+    <row r="705" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -14975,7 +14995,7 @@
       <c r="Q705" s="2"/>
       <c r="R705" s="2"/>
     </row>
-    <row r="706" ht="13.5" customHeight="1">
+    <row r="706" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -14995,7 +15015,7 @@
       <c r="Q706" s="2"/>
       <c r="R706" s="2"/>
     </row>
-    <row r="707" ht="13.5" customHeight="1">
+    <row r="707" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -15015,7 +15035,7 @@
       <c r="Q707" s="2"/>
       <c r="R707" s="2"/>
     </row>
-    <row r="708" ht="13.5" customHeight="1">
+    <row r="708" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -15035,7 +15055,7 @@
       <c r="Q708" s="2"/>
       <c r="R708" s="2"/>
     </row>
-    <row r="709" ht="13.5" customHeight="1">
+    <row r="709" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -15055,7 +15075,7 @@
       <c r="Q709" s="2"/>
       <c r="R709" s="2"/>
     </row>
-    <row r="710" ht="13.5" customHeight="1">
+    <row r="710" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -15075,7 +15095,7 @@
       <c r="Q710" s="2"/>
       <c r="R710" s="2"/>
     </row>
-    <row r="711" ht="13.5" customHeight="1">
+    <row r="711" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -15095,7 +15115,7 @@
       <c r="Q711" s="2"/>
       <c r="R711" s="2"/>
     </row>
-    <row r="712" ht="13.5" customHeight="1">
+    <row r="712" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -15115,7 +15135,7 @@
       <c r="Q712" s="2"/>
       <c r="R712" s="2"/>
     </row>
-    <row r="713" ht="13.5" customHeight="1">
+    <row r="713" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -15135,7 +15155,7 @@
       <c r="Q713" s="2"/>
       <c r="R713" s="2"/>
     </row>
-    <row r="714" ht="13.5" customHeight="1">
+    <row r="714" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -15155,7 +15175,7 @@
       <c r="Q714" s="2"/>
       <c r="R714" s="2"/>
     </row>
-    <row r="715" ht="13.5" customHeight="1">
+    <row r="715" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -15175,7 +15195,7 @@
       <c r="Q715" s="2"/>
       <c r="R715" s="2"/>
     </row>
-    <row r="716" ht="13.5" customHeight="1">
+    <row r="716" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -15195,7 +15215,7 @@
       <c r="Q716" s="2"/>
       <c r="R716" s="2"/>
     </row>
-    <row r="717" ht="13.5" customHeight="1">
+    <row r="717" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -15215,7 +15235,7 @@
       <c r="Q717" s="2"/>
       <c r="R717" s="2"/>
     </row>
-    <row r="718" ht="13.5" customHeight="1">
+    <row r="718" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -15235,7 +15255,7 @@
       <c r="Q718" s="2"/>
       <c r="R718" s="2"/>
     </row>
-    <row r="719" ht="13.5" customHeight="1">
+    <row r="719" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -15255,7 +15275,7 @@
       <c r="Q719" s="2"/>
       <c r="R719" s="2"/>
     </row>
-    <row r="720" ht="13.5" customHeight="1">
+    <row r="720" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -15275,7 +15295,7 @@
       <c r="Q720" s="2"/>
       <c r="R720" s="2"/>
     </row>
-    <row r="721" ht="13.5" customHeight="1">
+    <row r="721" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -15295,7 +15315,7 @@
       <c r="Q721" s="2"/>
       <c r="R721" s="2"/>
     </row>
-    <row r="722" ht="13.5" customHeight="1">
+    <row r="722" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -15315,7 +15335,7 @@
       <c r="Q722" s="2"/>
       <c r="R722" s="2"/>
     </row>
-    <row r="723" ht="13.5" customHeight="1">
+    <row r="723" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -15335,7 +15355,7 @@
       <c r="Q723" s="2"/>
       <c r="R723" s="2"/>
     </row>
-    <row r="724" ht="13.5" customHeight="1">
+    <row r="724" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -15355,7 +15375,7 @@
       <c r="Q724" s="2"/>
       <c r="R724" s="2"/>
     </row>
-    <row r="725" ht="13.5" customHeight="1">
+    <row r="725" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -15375,7 +15395,7 @@
       <c r="Q725" s="2"/>
       <c r="R725" s="2"/>
     </row>
-    <row r="726" ht="13.5" customHeight="1">
+    <row r="726" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -15395,7 +15415,7 @@
       <c r="Q726" s="2"/>
       <c r="R726" s="2"/>
     </row>
-    <row r="727" ht="13.5" customHeight="1">
+    <row r="727" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -15415,7 +15435,7 @@
       <c r="Q727" s="2"/>
       <c r="R727" s="2"/>
     </row>
-    <row r="728" ht="13.5" customHeight="1">
+    <row r="728" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -15435,7 +15455,7 @@
       <c r="Q728" s="2"/>
       <c r="R728" s="2"/>
     </row>
-    <row r="729" ht="13.5" customHeight="1">
+    <row r="729" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -15455,7 +15475,7 @@
       <c r="Q729" s="2"/>
       <c r="R729" s="2"/>
     </row>
-    <row r="730" ht="13.5" customHeight="1">
+    <row r="730" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -15475,7 +15495,7 @@
       <c r="Q730" s="2"/>
       <c r="R730" s="2"/>
     </row>
-    <row r="731" ht="13.5" customHeight="1">
+    <row r="731" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -15495,7 +15515,7 @@
       <c r="Q731" s="2"/>
       <c r="R731" s="2"/>
     </row>
-    <row r="732" ht="13.5" customHeight="1">
+    <row r="732" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -15515,7 +15535,7 @@
       <c r="Q732" s="2"/>
       <c r="R732" s="2"/>
     </row>
-    <row r="733" ht="13.5" customHeight="1">
+    <row r="733" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -15535,7 +15555,7 @@
       <c r="Q733" s="2"/>
       <c r="R733" s="2"/>
     </row>
-    <row r="734" ht="13.5" customHeight="1">
+    <row r="734" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -15555,7 +15575,7 @@
       <c r="Q734" s="2"/>
       <c r="R734" s="2"/>
     </row>
-    <row r="735" ht="13.5" customHeight="1">
+    <row r="735" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -15575,7 +15595,7 @@
       <c r="Q735" s="2"/>
       <c r="R735" s="2"/>
     </row>
-    <row r="736" ht="13.5" customHeight="1">
+    <row r="736" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -15595,7 +15615,7 @@
       <c r="Q736" s="2"/>
       <c r="R736" s="2"/>
     </row>
-    <row r="737" ht="13.5" customHeight="1">
+    <row r="737" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -15615,7 +15635,7 @@
       <c r="Q737" s="2"/>
       <c r="R737" s="2"/>
     </row>
-    <row r="738" ht="13.5" customHeight="1">
+    <row r="738" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -15635,7 +15655,7 @@
       <c r="Q738" s="2"/>
       <c r="R738" s="2"/>
     </row>
-    <row r="739" ht="13.5" customHeight="1">
+    <row r="739" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -15655,7 +15675,7 @@
       <c r="Q739" s="2"/>
       <c r="R739" s="2"/>
     </row>
-    <row r="740" ht="13.5" customHeight="1">
+    <row r="740" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -15675,7 +15695,7 @@
       <c r="Q740" s="2"/>
       <c r="R740" s="2"/>
     </row>
-    <row r="741" ht="13.5" customHeight="1">
+    <row r="741" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -15695,7 +15715,7 @@
       <c r="Q741" s="2"/>
       <c r="R741" s="2"/>
     </row>
-    <row r="742" ht="13.5" customHeight="1">
+    <row r="742" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -15715,7 +15735,7 @@
       <c r="Q742" s="2"/>
       <c r="R742" s="2"/>
     </row>
-    <row r="743" ht="13.5" customHeight="1">
+    <row r="743" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -15735,7 +15755,7 @@
       <c r="Q743" s="2"/>
       <c r="R743" s="2"/>
     </row>
-    <row r="744" ht="13.5" customHeight="1">
+    <row r="744" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -15755,7 +15775,7 @@
       <c r="Q744" s="2"/>
       <c r="R744" s="2"/>
     </row>
-    <row r="745" ht="13.5" customHeight="1">
+    <row r="745" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -15775,7 +15795,7 @@
       <c r="Q745" s="2"/>
       <c r="R745" s="2"/>
     </row>
-    <row r="746" ht="13.5" customHeight="1">
+    <row r="746" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -15795,7 +15815,7 @@
       <c r="Q746" s="2"/>
       <c r="R746" s="2"/>
     </row>
-    <row r="747" ht="13.5" customHeight="1">
+    <row r="747" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -15815,7 +15835,7 @@
       <c r="Q747" s="2"/>
       <c r="R747" s="2"/>
     </row>
-    <row r="748" ht="13.5" customHeight="1">
+    <row r="748" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -15835,7 +15855,7 @@
       <c r="Q748" s="2"/>
       <c r="R748" s="2"/>
     </row>
-    <row r="749" ht="13.5" customHeight="1">
+    <row r="749" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -15855,7 +15875,7 @@
       <c r="Q749" s="2"/>
       <c r="R749" s="2"/>
     </row>
-    <row r="750" ht="13.5" customHeight="1">
+    <row r="750" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -15875,7 +15895,7 @@
       <c r="Q750" s="2"/>
       <c r="R750" s="2"/>
     </row>
-    <row r="751" ht="13.5" customHeight="1">
+    <row r="751" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -15895,7 +15915,7 @@
       <c r="Q751" s="2"/>
       <c r="R751" s="2"/>
     </row>
-    <row r="752" ht="13.5" customHeight="1">
+    <row r="752" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -15915,7 +15935,7 @@
       <c r="Q752" s="2"/>
       <c r="R752" s="2"/>
     </row>
-    <row r="753" ht="13.5" customHeight="1">
+    <row r="753" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -15935,7 +15955,7 @@
       <c r="Q753" s="2"/>
       <c r="R753" s="2"/>
     </row>
-    <row r="754" ht="13.5" customHeight="1">
+    <row r="754" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -15955,7 +15975,7 @@
       <c r="Q754" s="2"/>
       <c r="R754" s="2"/>
     </row>
-    <row r="755" ht="13.5" customHeight="1">
+    <row r="755" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -15975,7 +15995,7 @@
       <c r="Q755" s="2"/>
       <c r="R755" s="2"/>
     </row>
-    <row r="756" ht="13.5" customHeight="1">
+    <row r="756" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -15995,7 +16015,7 @@
       <c r="Q756" s="2"/>
       <c r="R756" s="2"/>
     </row>
-    <row r="757" ht="13.5" customHeight="1">
+    <row r="757" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -16015,7 +16035,7 @@
       <c r="Q757" s="2"/>
       <c r="R757" s="2"/>
     </row>
-    <row r="758" ht="13.5" customHeight="1">
+    <row r="758" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -16035,7 +16055,7 @@
       <c r="Q758" s="2"/>
       <c r="R758" s="2"/>
     </row>
-    <row r="759" ht="13.5" customHeight="1">
+    <row r="759" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -16055,7 +16075,7 @@
       <c r="Q759" s="2"/>
       <c r="R759" s="2"/>
     </row>
-    <row r="760" ht="13.5" customHeight="1">
+    <row r="760" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -16075,7 +16095,7 @@
       <c r="Q760" s="2"/>
       <c r="R760" s="2"/>
     </row>
-    <row r="761" ht="13.5" customHeight="1">
+    <row r="761" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -16095,7 +16115,7 @@
       <c r="Q761" s="2"/>
       <c r="R761" s="2"/>
     </row>
-    <row r="762" ht="13.5" customHeight="1">
+    <row r="762" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -16115,7 +16135,7 @@
       <c r="Q762" s="2"/>
       <c r="R762" s="2"/>
     </row>
-    <row r="763" ht="13.5" customHeight="1">
+    <row r="763" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -16135,7 +16155,7 @@
       <c r="Q763" s="2"/>
       <c r="R763" s="2"/>
     </row>
-    <row r="764" ht="13.5" customHeight="1">
+    <row r="764" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -16155,7 +16175,7 @@
       <c r="Q764" s="2"/>
       <c r="R764" s="2"/>
     </row>
-    <row r="765" ht="13.5" customHeight="1">
+    <row r="765" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -16175,7 +16195,7 @@
       <c r="Q765" s="2"/>
       <c r="R765" s="2"/>
     </row>
-    <row r="766" ht="13.5" customHeight="1">
+    <row r="766" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -16195,7 +16215,7 @@
       <c r="Q766" s="2"/>
       <c r="R766" s="2"/>
     </row>
-    <row r="767" ht="13.5" customHeight="1">
+    <row r="767" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -16215,7 +16235,7 @@
       <c r="Q767" s="2"/>
       <c r="R767" s="2"/>
     </row>
-    <row r="768" ht="13.5" customHeight="1">
+    <row r="768" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -16235,7 +16255,7 @@
       <c r="Q768" s="2"/>
       <c r="R768" s="2"/>
     </row>
-    <row r="769" ht="13.5" customHeight="1">
+    <row r="769" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -16255,7 +16275,7 @@
       <c r="Q769" s="2"/>
       <c r="R769" s="2"/>
     </row>
-    <row r="770" ht="13.5" customHeight="1">
+    <row r="770" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -16275,7 +16295,7 @@
       <c r="Q770" s="2"/>
       <c r="R770" s="2"/>
     </row>
-    <row r="771" ht="13.5" customHeight="1">
+    <row r="771" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -16295,7 +16315,7 @@
       <c r="Q771" s="2"/>
       <c r="R771" s="2"/>
     </row>
-    <row r="772" ht="13.5" customHeight="1">
+    <row r="772" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -16315,7 +16335,7 @@
       <c r="Q772" s="2"/>
       <c r="R772" s="2"/>
     </row>
-    <row r="773" ht="13.5" customHeight="1">
+    <row r="773" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -16335,7 +16355,7 @@
       <c r="Q773" s="2"/>
       <c r="R773" s="2"/>
     </row>
-    <row r="774" ht="13.5" customHeight="1">
+    <row r="774" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -16355,7 +16375,7 @@
       <c r="Q774" s="2"/>
       <c r="R774" s="2"/>
     </row>
-    <row r="775" ht="13.5" customHeight="1">
+    <row r="775" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -16375,7 +16395,7 @@
       <c r="Q775" s="2"/>
       <c r="R775" s="2"/>
     </row>
-    <row r="776" ht="13.5" customHeight="1">
+    <row r="776" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -16395,7 +16415,7 @@
       <c r="Q776" s="2"/>
       <c r="R776" s="2"/>
     </row>
-    <row r="777" ht="13.5" customHeight="1">
+    <row r="777" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -16415,7 +16435,7 @@
       <c r="Q777" s="2"/>
       <c r="R777" s="2"/>
     </row>
-    <row r="778" ht="13.5" customHeight="1">
+    <row r="778" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -16435,7 +16455,7 @@
       <c r="Q778" s="2"/>
       <c r="R778" s="2"/>
     </row>
-    <row r="779" ht="13.5" customHeight="1">
+    <row r="779" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -16455,7 +16475,7 @@
       <c r="Q779" s="2"/>
       <c r="R779" s="2"/>
     </row>
-    <row r="780" ht="13.5" customHeight="1">
+    <row r="780" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -16475,7 +16495,7 @@
       <c r="Q780" s="2"/>
       <c r="R780" s="2"/>
     </row>
-    <row r="781" ht="13.5" customHeight="1">
+    <row r="781" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -16495,7 +16515,7 @@
       <c r="Q781" s="2"/>
       <c r="R781" s="2"/>
     </row>
-    <row r="782" ht="13.5" customHeight="1">
+    <row r="782" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -16515,7 +16535,7 @@
       <c r="Q782" s="2"/>
       <c r="R782" s="2"/>
     </row>
-    <row r="783" ht="13.5" customHeight="1">
+    <row r="783" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -16535,7 +16555,7 @@
       <c r="Q783" s="2"/>
       <c r="R783" s="2"/>
     </row>
-    <row r="784" ht="13.5" customHeight="1">
+    <row r="784" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -16555,7 +16575,7 @@
       <c r="Q784" s="2"/>
       <c r="R784" s="2"/>
     </row>
-    <row r="785" ht="13.5" customHeight="1">
+    <row r="785" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -16575,7 +16595,7 @@
       <c r="Q785" s="2"/>
       <c r="R785" s="2"/>
     </row>
-    <row r="786" ht="13.5" customHeight="1">
+    <row r="786" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -16595,7 +16615,7 @@
       <c r="Q786" s="2"/>
       <c r="R786" s="2"/>
     </row>
-    <row r="787" ht="13.5" customHeight="1">
+    <row r="787" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -16615,7 +16635,7 @@
       <c r="Q787" s="2"/>
       <c r="R787" s="2"/>
     </row>
-    <row r="788" ht="13.5" customHeight="1">
+    <row r="788" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -16635,7 +16655,7 @@
       <c r="Q788" s="2"/>
       <c r="R788" s="2"/>
     </row>
-    <row r="789" ht="13.5" customHeight="1">
+    <row r="789" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -16655,7 +16675,7 @@
       <c r="Q789" s="2"/>
       <c r="R789" s="2"/>
     </row>
-    <row r="790" ht="13.5" customHeight="1">
+    <row r="790" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -16675,7 +16695,7 @@
       <c r="Q790" s="2"/>
       <c r="R790" s="2"/>
     </row>
-    <row r="791" ht="13.5" customHeight="1">
+    <row r="791" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -16695,7 +16715,7 @@
       <c r="Q791" s="2"/>
       <c r="R791" s="2"/>
     </row>
-    <row r="792" ht="13.5" customHeight="1">
+    <row r="792" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -16715,7 +16735,7 @@
       <c r="Q792" s="2"/>
       <c r="R792" s="2"/>
     </row>
-    <row r="793" ht="13.5" customHeight="1">
+    <row r="793" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -16735,7 +16755,7 @@
       <c r="Q793" s="2"/>
       <c r="R793" s="2"/>
     </row>
-    <row r="794" ht="13.5" customHeight="1">
+    <row r="794" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -16755,7 +16775,7 @@
       <c r="Q794" s="2"/>
       <c r="R794" s="2"/>
     </row>
-    <row r="795" ht="13.5" customHeight="1">
+    <row r="795" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -16775,7 +16795,7 @@
       <c r="Q795" s="2"/>
       <c r="R795" s="2"/>
     </row>
-    <row r="796" ht="13.5" customHeight="1">
+    <row r="796" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -16795,7 +16815,7 @@
       <c r="Q796" s="2"/>
       <c r="R796" s="2"/>
     </row>
-    <row r="797" ht="13.5" customHeight="1">
+    <row r="797" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -16815,7 +16835,7 @@
       <c r="Q797" s="2"/>
       <c r="R797" s="2"/>
     </row>
-    <row r="798" ht="13.5" customHeight="1">
+    <row r="798" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -16835,7 +16855,7 @@
       <c r="Q798" s="2"/>
       <c r="R798" s="2"/>
     </row>
-    <row r="799" ht="13.5" customHeight="1">
+    <row r="799" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -16855,7 +16875,7 @@
       <c r="Q799" s="2"/>
       <c r="R799" s="2"/>
     </row>
-    <row r="800" ht="13.5" customHeight="1">
+    <row r="800" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -16875,7 +16895,7 @@
       <c r="Q800" s="2"/>
       <c r="R800" s="2"/>
     </row>
-    <row r="801" ht="13.5" customHeight="1">
+    <row r="801" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -16895,7 +16915,7 @@
       <c r="Q801" s="2"/>
       <c r="R801" s="2"/>
     </row>
-    <row r="802" ht="13.5" customHeight="1">
+    <row r="802" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -16915,7 +16935,7 @@
       <c r="Q802" s="2"/>
       <c r="R802" s="2"/>
     </row>
-    <row r="803" ht="13.5" customHeight="1">
+    <row r="803" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -16935,7 +16955,7 @@
       <c r="Q803" s="2"/>
       <c r="R803" s="2"/>
     </row>
-    <row r="804" ht="13.5" customHeight="1">
+    <row r="804" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -16955,7 +16975,7 @@
       <c r="Q804" s="2"/>
       <c r="R804" s="2"/>
     </row>
-    <row r="805" ht="13.5" customHeight="1">
+    <row r="805" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -16975,7 +16995,7 @@
       <c r="Q805" s="2"/>
       <c r="R805" s="2"/>
     </row>
-    <row r="806" ht="13.5" customHeight="1">
+    <row r="806" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -16995,7 +17015,7 @@
       <c r="Q806" s="2"/>
       <c r="R806" s="2"/>
     </row>
-    <row r="807" ht="13.5" customHeight="1">
+    <row r="807" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -17015,7 +17035,7 @@
       <c r="Q807" s="2"/>
       <c r="R807" s="2"/>
     </row>
-    <row r="808" ht="13.5" customHeight="1">
+    <row r="808" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -17035,7 +17055,7 @@
       <c r="Q808" s="2"/>
       <c r="R808" s="2"/>
     </row>
-    <row r="809" ht="13.5" customHeight="1">
+    <row r="809" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -17055,7 +17075,7 @@
       <c r="Q809" s="2"/>
       <c r="R809" s="2"/>
     </row>
-    <row r="810" ht="13.5" customHeight="1">
+    <row r="810" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -17075,7 +17095,7 @@
       <c r="Q810" s="2"/>
       <c r="R810" s="2"/>
     </row>
-    <row r="811" ht="13.5" customHeight="1">
+    <row r="811" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -17095,7 +17115,7 @@
       <c r="Q811" s="2"/>
       <c r="R811" s="2"/>
     </row>
-    <row r="812" ht="13.5" customHeight="1">
+    <row r="812" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -17115,7 +17135,7 @@
       <c r="Q812" s="2"/>
       <c r="R812" s="2"/>
     </row>
-    <row r="813" ht="13.5" customHeight="1">
+    <row r="813" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -17135,7 +17155,7 @@
       <c r="Q813" s="2"/>
       <c r="R813" s="2"/>
     </row>
-    <row r="814" ht="13.5" customHeight="1">
+    <row r="814" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -17155,7 +17175,7 @@
       <c r="Q814" s="2"/>
       <c r="R814" s="2"/>
     </row>
-    <row r="815" ht="13.5" customHeight="1">
+    <row r="815" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -17175,7 +17195,7 @@
       <c r="Q815" s="2"/>
       <c r="R815" s="2"/>
     </row>
-    <row r="816" ht="13.5" customHeight="1">
+    <row r="816" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -17195,7 +17215,7 @@
       <c r="Q816" s="2"/>
       <c r="R816" s="2"/>
     </row>
-    <row r="817" ht="13.5" customHeight="1">
+    <row r="817" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -17215,7 +17235,7 @@
       <c r="Q817" s="2"/>
       <c r="R817" s="2"/>
     </row>
-    <row r="818" ht="13.5" customHeight="1">
+    <row r="818" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -17235,7 +17255,7 @@
       <c r="Q818" s="2"/>
       <c r="R818" s="2"/>
     </row>
-    <row r="819" ht="13.5" customHeight="1">
+    <row r="819" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -17255,7 +17275,7 @@
       <c r="Q819" s="2"/>
       <c r="R819" s="2"/>
     </row>
-    <row r="820" ht="13.5" customHeight="1">
+    <row r="820" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -17275,7 +17295,7 @@
       <c r="Q820" s="2"/>
       <c r="R820" s="2"/>
     </row>
-    <row r="821" ht="13.5" customHeight="1">
+    <row r="821" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -17295,7 +17315,7 @@
       <c r="Q821" s="2"/>
       <c r="R821" s="2"/>
     </row>
-    <row r="822" ht="13.5" customHeight="1">
+    <row r="822" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -17315,7 +17335,7 @@
       <c r="Q822" s="2"/>
       <c r="R822" s="2"/>
     </row>
-    <row r="823" ht="13.5" customHeight="1">
+    <row r="823" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -17335,7 +17355,7 @@
       <c r="Q823" s="2"/>
       <c r="R823" s="2"/>
     </row>
-    <row r="824" ht="13.5" customHeight="1">
+    <row r="824" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -17355,7 +17375,7 @@
       <c r="Q824" s="2"/>
       <c r="R824" s="2"/>
     </row>
-    <row r="825" ht="13.5" customHeight="1">
+    <row r="825" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -17375,7 +17395,7 @@
       <c r="Q825" s="2"/>
       <c r="R825" s="2"/>
     </row>
-    <row r="826" ht="13.5" customHeight="1">
+    <row r="826" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -17395,7 +17415,7 @@
       <c r="Q826" s="2"/>
       <c r="R826" s="2"/>
     </row>
-    <row r="827" ht="13.5" customHeight="1">
+    <row r="827" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -17415,7 +17435,7 @@
       <c r="Q827" s="2"/>
       <c r="R827" s="2"/>
     </row>
-    <row r="828" ht="13.5" customHeight="1">
+    <row r="828" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -17435,7 +17455,7 @@
       <c r="Q828" s="2"/>
       <c r="R828" s="2"/>
     </row>
-    <row r="829" ht="13.5" customHeight="1">
+    <row r="829" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -17455,7 +17475,7 @@
       <c r="Q829" s="2"/>
       <c r="R829" s="2"/>
     </row>
-    <row r="830" ht="13.5" customHeight="1">
+    <row r="830" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -17475,7 +17495,7 @@
       <c r="Q830" s="2"/>
       <c r="R830" s="2"/>
     </row>
-    <row r="831" ht="13.5" customHeight="1">
+    <row r="831" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -17495,7 +17515,7 @@
       <c r="Q831" s="2"/>
       <c r="R831" s="2"/>
     </row>
-    <row r="832" ht="13.5" customHeight="1">
+    <row r="832" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -17515,7 +17535,7 @@
       <c r="Q832" s="2"/>
       <c r="R832" s="2"/>
     </row>
-    <row r="833" ht="13.5" customHeight="1">
+    <row r="833" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -17535,7 +17555,7 @@
       <c r="Q833" s="2"/>
       <c r="R833" s="2"/>
     </row>
-    <row r="834" ht="13.5" customHeight="1">
+    <row r="834" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -17555,7 +17575,7 @@
       <c r="Q834" s="2"/>
       <c r="R834" s="2"/>
     </row>
-    <row r="835" ht="13.5" customHeight="1">
+    <row r="835" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -17575,7 +17595,7 @@
       <c r="Q835" s="2"/>
       <c r="R835" s="2"/>
     </row>
-    <row r="836" ht="13.5" customHeight="1">
+    <row r="836" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -17595,7 +17615,7 @@
       <c r="Q836" s="2"/>
       <c r="R836" s="2"/>
     </row>
-    <row r="837" ht="13.5" customHeight="1">
+    <row r="837" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -17615,7 +17635,7 @@
       <c r="Q837" s="2"/>
       <c r="R837" s="2"/>
     </row>
-    <row r="838" ht="13.5" customHeight="1">
+    <row r="838" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -17635,7 +17655,7 @@
       <c r="Q838" s="2"/>
       <c r="R838" s="2"/>
     </row>
-    <row r="839" ht="13.5" customHeight="1">
+    <row r="839" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -17655,7 +17675,7 @@
       <c r="Q839" s="2"/>
       <c r="R839" s="2"/>
     </row>
-    <row r="840" ht="13.5" customHeight="1">
+    <row r="840" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -17675,7 +17695,7 @@
       <c r="Q840" s="2"/>
       <c r="R840" s="2"/>
     </row>
-    <row r="841" ht="13.5" customHeight="1">
+    <row r="841" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -17695,7 +17715,7 @@
       <c r="Q841" s="2"/>
       <c r="R841" s="2"/>
     </row>
-    <row r="842" ht="13.5" customHeight="1">
+    <row r="842" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -17715,7 +17735,7 @@
       <c r="Q842" s="2"/>
       <c r="R842" s="2"/>
     </row>
-    <row r="843" ht="13.5" customHeight="1">
+    <row r="843" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -17735,7 +17755,7 @@
       <c r="Q843" s="2"/>
       <c r="R843" s="2"/>
     </row>
-    <row r="844" ht="13.5" customHeight="1">
+    <row r="844" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -17755,7 +17775,7 @@
       <c r="Q844" s="2"/>
       <c r="R844" s="2"/>
     </row>
-    <row r="845" ht="13.5" customHeight="1">
+    <row r="845" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -17775,7 +17795,7 @@
       <c r="Q845" s="2"/>
       <c r="R845" s="2"/>
     </row>
-    <row r="846" ht="13.5" customHeight="1">
+    <row r="846" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -17795,7 +17815,7 @@
       <c r="Q846" s="2"/>
       <c r="R846" s="2"/>
     </row>
-    <row r="847" ht="13.5" customHeight="1">
+    <row r="847" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -17815,7 +17835,7 @@
       <c r="Q847" s="2"/>
       <c r="R847" s="2"/>
     </row>
-    <row r="848" ht="13.5" customHeight="1">
+    <row r="848" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -17835,7 +17855,7 @@
       <c r="Q848" s="2"/>
       <c r="R848" s="2"/>
     </row>
-    <row r="849" ht="13.5" customHeight="1">
+    <row r="849" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -17855,7 +17875,7 @@
       <c r="Q849" s="2"/>
       <c r="R849" s="2"/>
     </row>
-    <row r="850" ht="13.5" customHeight="1">
+    <row r="850" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -17875,7 +17895,7 @@
       <c r="Q850" s="2"/>
       <c r="R850" s="2"/>
     </row>
-    <row r="851" ht="13.5" customHeight="1">
+    <row r="851" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -17895,7 +17915,7 @@
       <c r="Q851" s="2"/>
       <c r="R851" s="2"/>
     </row>
-    <row r="852" ht="13.5" customHeight="1">
+    <row r="852" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -17915,7 +17935,7 @@
       <c r="Q852" s="2"/>
       <c r="R852" s="2"/>
     </row>
-    <row r="853" ht="13.5" customHeight="1">
+    <row r="853" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -17935,7 +17955,7 @@
       <c r="Q853" s="2"/>
       <c r="R853" s="2"/>
     </row>
-    <row r="854" ht="13.5" customHeight="1">
+    <row r="854" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -17955,7 +17975,7 @@
       <c r="Q854" s="2"/>
       <c r="R854" s="2"/>
     </row>
-    <row r="855" ht="13.5" customHeight="1">
+    <row r="855" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -17975,7 +17995,7 @@
       <c r="Q855" s="2"/>
       <c r="R855" s="2"/>
     </row>
-    <row r="856" ht="13.5" customHeight="1">
+    <row r="856" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -17995,7 +18015,7 @@
       <c r="Q856" s="2"/>
       <c r="R856" s="2"/>
     </row>
-    <row r="857" ht="13.5" customHeight="1">
+    <row r="857" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -18015,7 +18035,7 @@
       <c r="Q857" s="2"/>
       <c r="R857" s="2"/>
     </row>
-    <row r="858" ht="13.5" customHeight="1">
+    <row r="858" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -18035,7 +18055,7 @@
       <c r="Q858" s="2"/>
       <c r="R858" s="2"/>
     </row>
-    <row r="859" ht="13.5" customHeight="1">
+    <row r="859" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -18055,7 +18075,7 @@
       <c r="Q859" s="2"/>
       <c r="R859" s="2"/>
     </row>
-    <row r="860" ht="13.5" customHeight="1">
+    <row r="860" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -18075,7 +18095,7 @@
       <c r="Q860" s="2"/>
       <c r="R860" s="2"/>
     </row>
-    <row r="861" ht="13.5" customHeight="1">
+    <row r="861" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -18095,7 +18115,7 @@
       <c r="Q861" s="2"/>
       <c r="R861" s="2"/>
     </row>
-    <row r="862" ht="13.5" customHeight="1">
+    <row r="862" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -18115,7 +18135,7 @@
       <c r="Q862" s="2"/>
       <c r="R862" s="2"/>
     </row>
-    <row r="863" ht="13.5" customHeight="1">
+    <row r="863" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -18135,7 +18155,7 @@
       <c r="Q863" s="2"/>
       <c r="R863" s="2"/>
     </row>
-    <row r="864" ht="13.5" customHeight="1">
+    <row r="864" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -18155,7 +18175,7 @@
       <c r="Q864" s="2"/>
       <c r="R864" s="2"/>
     </row>
-    <row r="865" ht="13.5" customHeight="1">
+    <row r="865" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -18175,7 +18195,7 @@
       <c r="Q865" s="2"/>
       <c r="R865" s="2"/>
     </row>
-    <row r="866" ht="13.5" customHeight="1">
+    <row r="866" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -18195,7 +18215,7 @@
       <c r="Q866" s="2"/>
       <c r="R866" s="2"/>
     </row>
-    <row r="867" ht="13.5" customHeight="1">
+    <row r="867" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -18215,7 +18235,7 @@
       <c r="Q867" s="2"/>
       <c r="R867" s="2"/>
     </row>
-    <row r="868" ht="13.5" customHeight="1">
+    <row r="868" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -18235,7 +18255,7 @@
       <c r="Q868" s="2"/>
       <c r="R868" s="2"/>
     </row>
-    <row r="869" ht="13.5" customHeight="1">
+    <row r="869" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -18255,7 +18275,7 @@
       <c r="Q869" s="2"/>
       <c r="R869" s="2"/>
     </row>
-    <row r="870" ht="13.5" customHeight="1">
+    <row r="870" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -18275,7 +18295,7 @@
       <c r="Q870" s="2"/>
       <c r="R870" s="2"/>
     </row>
-    <row r="871" ht="13.5" customHeight="1">
+    <row r="871" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -18295,7 +18315,7 @@
       <c r="Q871" s="2"/>
       <c r="R871" s="2"/>
     </row>
-    <row r="872" ht="13.5" customHeight="1">
+    <row r="872" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -18315,7 +18335,7 @@
       <c r="Q872" s="2"/>
       <c r="R872" s="2"/>
     </row>
-    <row r="873" ht="13.5" customHeight="1">
+    <row r="873" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -18335,7 +18355,7 @@
       <c r="Q873" s="2"/>
       <c r="R873" s="2"/>
     </row>
-    <row r="874" ht="13.5" customHeight="1">
+    <row r="874" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -18355,7 +18375,7 @@
       <c r="Q874" s="2"/>
       <c r="R874" s="2"/>
     </row>
-    <row r="875" ht="13.5" customHeight="1">
+    <row r="875" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -18375,7 +18395,7 @@
       <c r="Q875" s="2"/>
       <c r="R875" s="2"/>
     </row>
-    <row r="876" ht="13.5" customHeight="1">
+    <row r="876" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -18395,7 +18415,7 @@
       <c r="Q876" s="2"/>
       <c r="R876" s="2"/>
     </row>
-    <row r="877" ht="13.5" customHeight="1">
+    <row r="877" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -18415,7 +18435,7 @@
       <c r="Q877" s="2"/>
       <c r="R877" s="2"/>
     </row>
-    <row r="878" ht="13.5" customHeight="1">
+    <row r="878" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -18435,7 +18455,7 @@
       <c r="Q878" s="2"/>
       <c r="R878" s="2"/>
     </row>
-    <row r="879" ht="13.5" customHeight="1">
+    <row r="879" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -18455,7 +18475,7 @@
       <c r="Q879" s="2"/>
       <c r="R879" s="2"/>
     </row>
-    <row r="880" ht="13.5" customHeight="1">
+    <row r="880" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -18475,7 +18495,7 @@
       <c r="Q880" s="2"/>
       <c r="R880" s="2"/>
     </row>
-    <row r="881" ht="13.5" customHeight="1">
+    <row r="881" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -18495,7 +18515,7 @@
       <c r="Q881" s="2"/>
       <c r="R881" s="2"/>
     </row>
-    <row r="882" ht="13.5" customHeight="1">
+    <row r="882" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -18515,7 +18535,7 @@
       <c r="Q882" s="2"/>
       <c r="R882" s="2"/>
     </row>
-    <row r="883" ht="13.5" customHeight="1">
+    <row r="883" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -18535,7 +18555,7 @@
       <c r="Q883" s="2"/>
       <c r="R883" s="2"/>
     </row>
-    <row r="884" ht="13.5" customHeight="1">
+    <row r="884" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -18555,7 +18575,7 @@
       <c r="Q884" s="2"/>
       <c r="R884" s="2"/>
     </row>
-    <row r="885" ht="13.5" customHeight="1">
+    <row r="885" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -18575,7 +18595,7 @@
       <c r="Q885" s="2"/>
       <c r="R885" s="2"/>
     </row>
-    <row r="886" ht="13.5" customHeight="1">
+    <row r="886" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -18595,7 +18615,7 @@
       <c r="Q886" s="2"/>
       <c r="R886" s="2"/>
     </row>
-    <row r="887" ht="13.5" customHeight="1">
+    <row r="887" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -18615,7 +18635,7 @@
       <c r="Q887" s="2"/>
       <c r="R887" s="2"/>
     </row>
-    <row r="888" ht="13.5" customHeight="1">
+    <row r="888" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -18635,7 +18655,7 @@
       <c r="Q888" s="2"/>
       <c r="R888" s="2"/>
     </row>
-    <row r="889" ht="13.5" customHeight="1">
+    <row r="889" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -18655,7 +18675,7 @@
       <c r="Q889" s="2"/>
       <c r="R889" s="2"/>
     </row>
-    <row r="890" ht="13.5" customHeight="1">
+    <row r="890" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -18675,7 +18695,7 @@
       <c r="Q890" s="2"/>
       <c r="R890" s="2"/>
     </row>
-    <row r="891" ht="13.5" customHeight="1">
+    <row r="891" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -18695,7 +18715,7 @@
       <c r="Q891" s="2"/>
       <c r="R891" s="2"/>
     </row>
-    <row r="892" ht="13.5" customHeight="1">
+    <row r="892" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -18715,7 +18735,7 @@
       <c r="Q892" s="2"/>
       <c r="R892" s="2"/>
     </row>
-    <row r="893" ht="13.5" customHeight="1">
+    <row r="893" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -18735,7 +18755,7 @@
       <c r="Q893" s="2"/>
       <c r="R893" s="2"/>
     </row>
-    <row r="894" ht="13.5" customHeight="1">
+    <row r="894" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -18755,7 +18775,7 @@
       <c r="Q894" s="2"/>
       <c r="R894" s="2"/>
     </row>
-    <row r="895" ht="13.5" customHeight="1">
+    <row r="895" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -18775,7 +18795,7 @@
       <c r="Q895" s="2"/>
       <c r="R895" s="2"/>
     </row>
-    <row r="896" ht="13.5" customHeight="1">
+    <row r="896" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -18795,7 +18815,7 @@
       <c r="Q896" s="2"/>
       <c r="R896" s="2"/>
     </row>
-    <row r="897" ht="13.5" customHeight="1">
+    <row r="897" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -18815,7 +18835,7 @@
       <c r="Q897" s="2"/>
       <c r="R897" s="2"/>
     </row>
-    <row r="898" ht="13.5" customHeight="1">
+    <row r="898" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -18835,7 +18855,7 @@
       <c r="Q898" s="2"/>
       <c r="R898" s="2"/>
     </row>
-    <row r="899" ht="13.5" customHeight="1">
+    <row r="899" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -18855,7 +18875,7 @@
       <c r="Q899" s="2"/>
       <c r="R899" s="2"/>
     </row>
-    <row r="900" ht="13.5" customHeight="1">
+    <row r="900" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -18875,7 +18895,7 @@
       <c r="Q900" s="2"/>
       <c r="R900" s="2"/>
     </row>
-    <row r="901" ht="13.5" customHeight="1">
+    <row r="901" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -18895,7 +18915,7 @@
       <c r="Q901" s="2"/>
       <c r="R901" s="2"/>
     </row>
-    <row r="902" ht="13.5" customHeight="1">
+    <row r="902" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -18915,7 +18935,7 @@
       <c r="Q902" s="2"/>
       <c r="R902" s="2"/>
     </row>
-    <row r="903" ht="13.5" customHeight="1">
+    <row r="903" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -18935,7 +18955,7 @@
       <c r="Q903" s="2"/>
       <c r="R903" s="2"/>
     </row>
-    <row r="904" ht="13.5" customHeight="1">
+    <row r="904" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -18955,7 +18975,7 @@
       <c r="Q904" s="2"/>
       <c r="R904" s="2"/>
     </row>
-    <row r="905" ht="13.5" customHeight="1">
+    <row r="905" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -18975,7 +18995,7 @@
       <c r="Q905" s="2"/>
       <c r="R905" s="2"/>
     </row>
-    <row r="906" ht="13.5" customHeight="1">
+    <row r="906" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -18995,7 +19015,7 @@
       <c r="Q906" s="2"/>
       <c r="R906" s="2"/>
     </row>
-    <row r="907" ht="13.5" customHeight="1">
+    <row r="907" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -19015,7 +19035,7 @@
       <c r="Q907" s="2"/>
       <c r="R907" s="2"/>
     </row>
-    <row r="908" ht="13.5" customHeight="1">
+    <row r="908" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -19035,7 +19055,7 @@
       <c r="Q908" s="2"/>
       <c r="R908" s="2"/>
     </row>
-    <row r="909" ht="13.5" customHeight="1">
+    <row r="909" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -19055,7 +19075,7 @@
       <c r="Q909" s="2"/>
       <c r="R909" s="2"/>
     </row>
-    <row r="910" ht="13.5" customHeight="1">
+    <row r="910" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -19075,7 +19095,7 @@
       <c r="Q910" s="2"/>
       <c r="R910" s="2"/>
     </row>
-    <row r="911" ht="13.5" customHeight="1">
+    <row r="911" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -19095,7 +19115,7 @@
       <c r="Q911" s="2"/>
       <c r="R911" s="2"/>
     </row>
-    <row r="912" ht="13.5" customHeight="1">
+    <row r="912" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -19115,7 +19135,7 @@
       <c r="Q912" s="2"/>
       <c r="R912" s="2"/>
     </row>
-    <row r="913" ht="13.5" customHeight="1">
+    <row r="913" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -19135,7 +19155,7 @@
       <c r="Q913" s="2"/>
       <c r="R913" s="2"/>
     </row>
-    <row r="914" ht="13.5" customHeight="1">
+    <row r="914" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -19155,7 +19175,7 @@
       <c r="Q914" s="2"/>
       <c r="R914" s="2"/>
     </row>
-    <row r="915" ht="13.5" customHeight="1">
+    <row r="915" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -19175,7 +19195,7 @@
       <c r="Q915" s="2"/>
       <c r="R915" s="2"/>
     </row>
-    <row r="916" ht="13.5" customHeight="1">
+    <row r="916" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -19195,7 +19215,7 @@
       <c r="Q916" s="2"/>
       <c r="R916" s="2"/>
     </row>
-    <row r="917" ht="13.5" customHeight="1">
+    <row r="917" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -19215,7 +19235,7 @@
       <c r="Q917" s="2"/>
       <c r="R917" s="2"/>
     </row>
-    <row r="918" ht="13.5" customHeight="1">
+    <row r="918" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -19235,7 +19255,7 @@
       <c r="Q918" s="2"/>
       <c r="R918" s="2"/>
     </row>
-    <row r="919" ht="13.5" customHeight="1">
+    <row r="919" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -19255,7 +19275,7 @@
       <c r="Q919" s="2"/>
       <c r="R919" s="2"/>
     </row>
-    <row r="920" ht="13.5" customHeight="1">
+    <row r="920" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -19275,7 +19295,7 @@
       <c r="Q920" s="2"/>
       <c r="R920" s="2"/>
     </row>
-    <row r="921" ht="13.5" customHeight="1">
+    <row r="921" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -19295,7 +19315,7 @@
       <c r="Q921" s="2"/>
       <c r="R921" s="2"/>
     </row>
-    <row r="922" ht="13.5" customHeight="1">
+    <row r="922" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -19315,7 +19335,7 @@
       <c r="Q922" s="2"/>
       <c r="R922" s="2"/>
     </row>
-    <row r="923" ht="13.5" customHeight="1">
+    <row r="923" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -19335,7 +19355,7 @@
       <c r="Q923" s="2"/>
       <c r="R923" s="2"/>
     </row>
-    <row r="924" ht="13.5" customHeight="1">
+    <row r="924" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -19355,7 +19375,7 @@
       <c r="Q924" s="2"/>
       <c r="R924" s="2"/>
     </row>
-    <row r="925" ht="13.5" customHeight="1">
+    <row r="925" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -19375,7 +19395,7 @@
       <c r="Q925" s="2"/>
       <c r="R925" s="2"/>
     </row>
-    <row r="926" ht="13.5" customHeight="1">
+    <row r="926" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -19395,7 +19415,7 @@
       <c r="Q926" s="2"/>
       <c r="R926" s="2"/>
     </row>
-    <row r="927" ht="13.5" customHeight="1">
+    <row r="927" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -19415,7 +19435,7 @@
       <c r="Q927" s="2"/>
       <c r="R927" s="2"/>
     </row>
-    <row r="928" ht="13.5" customHeight="1">
+    <row r="928" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -19435,7 +19455,7 @@
       <c r="Q928" s="2"/>
       <c r="R928" s="2"/>
     </row>
-    <row r="929" ht="13.5" customHeight="1">
+    <row r="929" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -19455,7 +19475,7 @@
       <c r="Q929" s="2"/>
       <c r="R929" s="2"/>
     </row>
-    <row r="930" ht="13.5" customHeight="1">
+    <row r="930" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -19475,7 +19495,7 @@
       <c r="Q930" s="2"/>
       <c r="R930" s="2"/>
     </row>
-    <row r="931" ht="13.5" customHeight="1">
+    <row r="931" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -19495,7 +19515,7 @@
       <c r="Q931" s="2"/>
       <c r="R931" s="2"/>
     </row>
-    <row r="932" ht="13.5" customHeight="1">
+    <row r="932" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -19515,7 +19535,7 @@
       <c r="Q932" s="2"/>
       <c r="R932" s="2"/>
     </row>
-    <row r="933" ht="13.5" customHeight="1">
+    <row r="933" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -19535,7 +19555,7 @@
       <c r="Q933" s="2"/>
       <c r="R933" s="2"/>
     </row>
-    <row r="934" ht="13.5" customHeight="1">
+    <row r="934" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -19555,7 +19575,7 @@
       <c r="Q934" s="2"/>
       <c r="R934" s="2"/>
     </row>
-    <row r="935" ht="13.5" customHeight="1">
+    <row r="935" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -19575,7 +19595,7 @@
       <c r="Q935" s="2"/>
       <c r="R935" s="2"/>
     </row>
-    <row r="936" ht="13.5" customHeight="1">
+    <row r="936" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -19595,7 +19615,7 @@
       <c r="Q936" s="2"/>
       <c r="R936" s="2"/>
     </row>
-    <row r="937" ht="13.5" customHeight="1">
+    <row r="937" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -19615,7 +19635,7 @@
       <c r="Q937" s="2"/>
       <c r="R937" s="2"/>
     </row>
-    <row r="938" ht="13.5" customHeight="1">
+    <row r="938" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -19635,7 +19655,7 @@
       <c r="Q938" s="2"/>
       <c r="R938" s="2"/>
     </row>
-    <row r="939" ht="13.5" customHeight="1">
+    <row r="939" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -19655,7 +19675,7 @@
       <c r="Q939" s="2"/>
       <c r="R939" s="2"/>
     </row>
-    <row r="940" ht="13.5" customHeight="1">
+    <row r="940" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -19675,7 +19695,7 @@
       <c r="Q940" s="2"/>
       <c r="R940" s="2"/>
     </row>
-    <row r="941" ht="13.5" customHeight="1">
+    <row r="941" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -19695,7 +19715,7 @@
       <c r="Q941" s="2"/>
       <c r="R941" s="2"/>
     </row>
-    <row r="942" ht="13.5" customHeight="1">
+    <row r="942" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -19715,7 +19735,7 @@
       <c r="Q942" s="2"/>
       <c r="R942" s="2"/>
     </row>
-    <row r="943" ht="13.5" customHeight="1">
+    <row r="943" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -19735,7 +19755,7 @@
       <c r="Q943" s="2"/>
       <c r="R943" s="2"/>
     </row>
-    <row r="944" ht="13.5" customHeight="1">
+    <row r="944" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -19755,7 +19775,7 @@
       <c r="Q944" s="2"/>
       <c r="R944" s="2"/>
     </row>
-    <row r="945" ht="13.5" customHeight="1">
+    <row r="945" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -19775,7 +19795,7 @@
       <c r="Q945" s="2"/>
       <c r="R945" s="2"/>
     </row>
-    <row r="946" ht="13.5" customHeight="1">
+    <row r="946" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -19795,7 +19815,7 @@
       <c r="Q946" s="2"/>
       <c r="R946" s="2"/>
     </row>
-    <row r="947" ht="13.5" customHeight="1">
+    <row r="947" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -19815,7 +19835,7 @@
       <c r="Q947" s="2"/>
       <c r="R947" s="2"/>
     </row>
-    <row r="948" ht="13.5" customHeight="1">
+    <row r="948" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -19835,7 +19855,7 @@
       <c r="Q948" s="2"/>
       <c r="R948" s="2"/>
     </row>
-    <row r="949" ht="13.5" customHeight="1">
+    <row r="949" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -19855,7 +19875,7 @@
       <c r="Q949" s="2"/>
       <c r="R949" s="2"/>
     </row>
-    <row r="950" ht="13.5" customHeight="1">
+    <row r="950" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -19875,7 +19895,7 @@
       <c r="Q950" s="2"/>
       <c r="R950" s="2"/>
     </row>
-    <row r="951" ht="13.5" customHeight="1">
+    <row r="951" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -19895,7 +19915,7 @@
       <c r="Q951" s="2"/>
       <c r="R951" s="2"/>
     </row>
-    <row r="952" ht="13.5" customHeight="1">
+    <row r="952" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -19915,7 +19935,7 @@
       <c r="Q952" s="2"/>
       <c r="R952" s="2"/>
     </row>
-    <row r="953" ht="13.5" customHeight="1">
+    <row r="953" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -19935,7 +19955,7 @@
       <c r="Q953" s="2"/>
       <c r="R953" s="2"/>
     </row>
-    <row r="954" ht="13.5" customHeight="1">
+    <row r="954" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -19955,7 +19975,7 @@
       <c r="Q954" s="2"/>
       <c r="R954" s="2"/>
     </row>
-    <row r="955" ht="13.5" customHeight="1">
+    <row r="955" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -19975,7 +19995,7 @@
       <c r="Q955" s="2"/>
       <c r="R955" s="2"/>
     </row>
-    <row r="956" ht="13.5" customHeight="1">
+    <row r="956" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -19995,7 +20015,7 @@
       <c r="Q956" s="2"/>
       <c r="R956" s="2"/>
     </row>
-    <row r="957" ht="13.5" customHeight="1">
+    <row r="957" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -20015,7 +20035,7 @@
       <c r="Q957" s="2"/>
       <c r="R957" s="2"/>
     </row>
-    <row r="958" ht="13.5" customHeight="1">
+    <row r="958" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -20035,7 +20055,7 @@
       <c r="Q958" s="2"/>
       <c r="R958" s="2"/>
     </row>
-    <row r="959" ht="13.5" customHeight="1">
+    <row r="959" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -20055,7 +20075,7 @@
       <c r="Q959" s="2"/>
       <c r="R959" s="2"/>
     </row>
-    <row r="960" ht="13.5" customHeight="1">
+    <row r="960" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -20075,7 +20095,7 @@
       <c r="Q960" s="2"/>
       <c r="R960" s="2"/>
     </row>
-    <row r="961" ht="13.5" customHeight="1">
+    <row r="961" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -20095,7 +20115,7 @@
       <c r="Q961" s="2"/>
       <c r="R961" s="2"/>
     </row>
-    <row r="962" ht="13.5" customHeight="1">
+    <row r="962" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -20115,7 +20135,7 @@
       <c r="Q962" s="2"/>
       <c r="R962" s="2"/>
     </row>
-    <row r="963" ht="13.5" customHeight="1">
+    <row r="963" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -20135,7 +20155,7 @@
       <c r="Q963" s="2"/>
       <c r="R963" s="2"/>
     </row>
-    <row r="964" ht="13.5" customHeight="1">
+    <row r="964" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -20155,7 +20175,7 @@
       <c r="Q964" s="2"/>
       <c r="R964" s="2"/>
     </row>
-    <row r="965" ht="13.5" customHeight="1">
+    <row r="965" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -20175,7 +20195,7 @@
       <c r="Q965" s="2"/>
       <c r="R965" s="2"/>
     </row>
-    <row r="966" ht="13.5" customHeight="1">
+    <row r="966" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -20195,7 +20215,7 @@
       <c r="Q966" s="2"/>
       <c r="R966" s="2"/>
     </row>
-    <row r="967" ht="13.5" customHeight="1">
+    <row r="967" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -20215,7 +20235,7 @@
       <c r="Q967" s="2"/>
       <c r="R967" s="2"/>
     </row>
-    <row r="968" ht="13.5" customHeight="1">
+    <row r="968" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -20235,7 +20255,7 @@
       <c r="Q968" s="2"/>
       <c r="R968" s="2"/>
     </row>
-    <row r="969" ht="13.5" customHeight="1">
+    <row r="969" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -20255,7 +20275,7 @@
       <c r="Q969" s="2"/>
       <c r="R969" s="2"/>
     </row>
-    <row r="970" ht="13.5" customHeight="1">
+    <row r="970" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -20275,7 +20295,7 @@
       <c r="Q970" s="2"/>
       <c r="R970" s="2"/>
     </row>
-    <row r="971" ht="13.5" customHeight="1">
+    <row r="971" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -20295,7 +20315,7 @@
       <c r="Q971" s="2"/>
       <c r="R971" s="2"/>
     </row>
-    <row r="972" ht="13.5" customHeight="1">
+    <row r="972" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -20315,7 +20335,7 @@
       <c r="Q972" s="2"/>
       <c r="R972" s="2"/>
     </row>
-    <row r="973" ht="13.5" customHeight="1">
+    <row r="973" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -20335,7 +20355,7 @@
       <c r="Q973" s="2"/>
       <c r="R973" s="2"/>
     </row>
-    <row r="974" ht="13.5" customHeight="1">
+    <row r="974" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -20355,7 +20375,7 @@
       <c r="Q974" s="2"/>
       <c r="R974" s="2"/>
     </row>
-    <row r="975" ht="13.5" customHeight="1">
+    <row r="975" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -20375,7 +20395,7 @@
       <c r="Q975" s="2"/>
       <c r="R975" s="2"/>
     </row>
-    <row r="976" ht="13.5" customHeight="1">
+    <row r="976" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -20395,7 +20415,7 @@
       <c r="Q976" s="2"/>
       <c r="R976" s="2"/>
     </row>
-    <row r="977" ht="13.5" customHeight="1">
+    <row r="977" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -20415,7 +20435,7 @@
       <c r="Q977" s="2"/>
       <c r="R977" s="2"/>
     </row>
-    <row r="978" ht="13.5" customHeight="1">
+    <row r="978" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -20435,7 +20455,7 @@
       <c r="Q978" s="2"/>
       <c r="R978" s="2"/>
     </row>
-    <row r="979" ht="13.5" customHeight="1">
+    <row r="979" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -20455,7 +20475,7 @@
       <c r="Q979" s="2"/>
       <c r="R979" s="2"/>
     </row>
-    <row r="980" ht="13.5" customHeight="1">
+    <row r="980" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -20475,7 +20495,7 @@
       <c r="Q980" s="2"/>
       <c r="R980" s="2"/>
     </row>
-    <row r="981" ht="13.5" customHeight="1">
+    <row r="981" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -20495,7 +20515,7 @@
       <c r="Q981" s="2"/>
       <c r="R981" s="2"/>
     </row>
-    <row r="982" ht="13.5" customHeight="1">
+    <row r="982" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -20515,7 +20535,7 @@
       <c r="Q982" s="2"/>
       <c r="R982" s="2"/>
     </row>
-    <row r="983" ht="13.5" customHeight="1">
+    <row r="983" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -20535,7 +20555,7 @@
       <c r="Q983" s="2"/>
       <c r="R983" s="2"/>
     </row>
-    <row r="984" ht="13.5" customHeight="1">
+    <row r="984" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -20555,7 +20575,7 @@
       <c r="Q984" s="2"/>
       <c r="R984" s="2"/>
     </row>
-    <row r="985" ht="13.5" customHeight="1">
+    <row r="985" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -20575,7 +20595,7 @@
       <c r="Q985" s="2"/>
       <c r="R985" s="2"/>
     </row>
-    <row r="986" ht="13.5" customHeight="1">
+    <row r="986" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -20595,7 +20615,7 @@
       <c r="Q986" s="2"/>
       <c r="R986" s="2"/>
     </row>
-    <row r="987" ht="13.5" customHeight="1">
+    <row r="987" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -20615,7 +20635,7 @@
       <c r="Q987" s="2"/>
       <c r="R987" s="2"/>
     </row>
-    <row r="988" ht="13.5" customHeight="1">
+    <row r="988" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -20635,7 +20655,7 @@
       <c r="Q988" s="2"/>
       <c r="R988" s="2"/>
     </row>
-    <row r="989" ht="13.5" customHeight="1">
+    <row r="989" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -20655,7 +20675,7 @@
       <c r="Q989" s="2"/>
       <c r="R989" s="2"/>
     </row>
-    <row r="990" ht="13.5" customHeight="1">
+    <row r="990" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -20675,7 +20695,7 @@
       <c r="Q990" s="2"/>
       <c r="R990" s="2"/>
     </row>
-    <row r="991" ht="13.5" customHeight="1">
+    <row r="991" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -20695,7 +20715,7 @@
       <c r="Q991" s="2"/>
       <c r="R991" s="2"/>
     </row>
-    <row r="992" ht="13.5" customHeight="1">
+    <row r="992" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -20715,7 +20735,7 @@
       <c r="Q992" s="2"/>
       <c r="R992" s="2"/>
     </row>
-    <row r="993" ht="13.5" customHeight="1">
+    <row r="993" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -20735,7 +20755,7 @@
       <c r="Q993" s="2"/>
       <c r="R993" s="2"/>
     </row>
-    <row r="994" ht="13.5" customHeight="1">
+    <row r="994" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -20755,7 +20775,7 @@
       <c r="Q994" s="2"/>
       <c r="R994" s="2"/>
     </row>
-    <row r="995" ht="13.5" customHeight="1">
+    <row r="995" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -20775,7 +20795,7 @@
       <c r="Q995" s="2"/>
       <c r="R995" s="2"/>
     </row>
-    <row r="996" ht="13.5" customHeight="1">
+    <row r="996" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -20795,7 +20815,7 @@
       <c r="Q996" s="2"/>
       <c r="R996" s="2"/>
     </row>
-    <row r="997" ht="13.5" customHeight="1">
+    <row r="997" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -20815,7 +20835,7 @@
       <c r="Q997" s="2"/>
       <c r="R997" s="2"/>
     </row>
-    <row r="998" ht="13.5" customHeight="1">
+    <row r="998" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -20835,7 +20855,7 @@
       <c r="Q998" s="2"/>
       <c r="R998" s="2"/>
     </row>
-    <row r="999" ht="13.5" customHeight="1">
+    <row r="999" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -20855,7 +20875,7 @@
       <c r="Q999" s="2"/>
       <c r="R999" s="2"/>
     </row>
-    <row r="1000" ht="13.5" customHeight="1">
+    <row r="1000" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -20876,9 +20896,7 @@
       <c r="R1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\SourceCode\mayuradesh\mosip-data\lts\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6294F3-D9EF-448E-BCE3-E66EB2C94300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -76,16 +75,7 @@
     <t>del_dtimes</t>
   </si>
   <si>
-    <t>619e3392-a37a-4476-934b-2bb4c45850bf</t>
-  </si>
-  <si>
     <t>pre-registration</t>
-  </si>
-  <si>
-    <t>Pre-Registration UI Specification</t>
-  </si>
-  <si>
-    <t>Pre-Registration UI Specification for Data Capture</t>
   </si>
   <si>
     <t>schema</t>
@@ -98,9 +88,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>service-account-mosip-prereg-client</t>
   </si>
   <si>
     <t>f</t>
@@ -121,15 +108,6 @@
     <t>settings</t>
   </si>
   <si>
-    <t>[{"name":"scheduledjobs","description":{"fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"label":{"fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"fxml":"ScheduledJobsSettings.fxml","icon":"scheduledjobs.png","order":"1","shortcut-icon":"scheduledjobs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR"]},{"name":"globalconfigs","description":{"fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"label":{"fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"fxml":"GlobalConfigSettings.fxml","icon":"globalconfigs.png","order":"2","shortcut-icon":"globalconfigs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]},{"name":"devices","description":{"fra":"Réglages de l'appareil","eng":"Device Settings"},"label":{"fra":"Réglages de l'appareil","eng":"Device Settings"},"fxml":"DeviceSettings.fxml","icon":"devices.png","order":"3","shortcut-icon":"devices-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]}]</t>
-  </si>
-  <si>
-    <t>110024</t>
-  </si>
-  <si>
-    <t>110005</t>
-  </si>
-  <si>
     <t>0b1177a3-0e92-4f53-9176-aca49d662328</t>
   </si>
   <si>
@@ -139,79 +117,88 @@
     <t>screens</t>
   </si>
   <si>
-    <t>[{"order":1,"name":"ConsentDetails","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":["consentText","consent"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"fra":"Détails démographiques","eng":"Demographic Details"},"fields":["fullName","dateOfBirth","gender","residenceStatus","addressLine1","addressLine2","addressLine3","referenceIdentityNumber","region","province","city","zone","postalCode","phone","email","introducerName","introducerRID","introducerUIN"],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"DocumentsDetails","label":{"fra":"Des documents","eng":"Document Upload"},"caption":{"fra":"Des documents","eng":"Documents"},"fields":["proofOfAddress","proofOfIdentity","proofOfRelationship","proofOfDateOfBirth","proofOfException","proofOfException-1"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":["individualBiometrics","individualAuthBiometrics","introducerBiometrics"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}]</t>
-  </si>
-  <si>
     <t>ff8df956-f529-45b6-9242-abe61bb02df9</t>
   </si>
   <si>
     <t>Fields spec</t>
   </si>
   <si>
-    <t>Field spec</t>
-  </si>
-  <si>
-    <t>[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"UIN","inputRequired":false,"type":"string","minimum":0,"maximum":0,"description":"UIN","label":{"eng":"UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"UIN"},{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || (identity.isUpdate &amp;&amp; (identity.updatableFieldGroups contains 'IntroducerDetails' || identity.updatableFieldGroups contains 'DateOfBirth'))"}],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"fra":"Le genre","eng":"Gender"},"controlType":"dropdown","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"fra":"Reside Status","eng":"Residence Status"},"controlType":"dropdown","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":null,"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"( identity.isNew &amp;&amp; identity.isChild ) || ( identity.isUpdate &amp;&amp; identity.isChild ) || ( !(identity.get('introducerRID') == nil || identity.get('introducerRID') == empty) ||   !(identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty))"}],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":null,"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"( !(identity.get('introducerName') == nil || identity.get('introducerName') == empty) &amp;&amp;   (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty))"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":null,"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"( !(identity.get('introducerName') == nil || identity.get('introducerName') == empty) &amp;&amp;   (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty))"}],"subType":"UIN"},{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || ( identity.isUpdate &amp;&amp; (identity.updatableFields contains 'addressLine1' || identity.updatableFields contains 'addressLine2' || identity.updatableFields contains 'addressLine3'))"}],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || ( identity.isUpdate &amp;&amp; identity.updatableFields contains 'fullName')"}],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"( identity.isNew &amp;&amp; identity.isChild ) || ( identity.isUpdate &amp;&amp; (identity.updatableFieldGroups contains 'IntroducerDetails' || identity.isChild))"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isUpdate &amp;&amp; identity.updatableFields contains 'dateOfBirth'"}],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"},{"id":"proofOfException-1","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"},{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"(identity.isNew || identity.isLost || ( identity.isUpdate &amp;&amp; identity.updatableFieldGroups contains 'Biometrics'))"}],"subType":"applicant"},{"id":"individualAuthBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"Used to hold biometrics only for authentication","label":{"fra":"Authentication Biometrics","eng":"Authentication Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"!identity.isChild &amp;&amp; identity.isUpdate &amp;&amp; !(identity.updatableFieldGroups contains 'Biometrics' || identity.updatableFieldGroups contains 'IntroducerDetails')"}],"subType":"applicant-auth"},{"id":"introducerBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Introducteur Biométrie","eng":"Introducer Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"(identity.isChild &amp;&amp; identity.isNew) || (identity.isUpdate &amp;&amp; identity.updatableFieldGroups contains 'IntroducerDetails') || !(identity.get('introducerName') == nil || identity.get('introducerName') == empty)"}],"subType":"introducer"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ef9f1c-b1b6-4c78-871f-000ed543c191 </t>
-  </si>
-  <si>
-    <t>New registration process</t>
-  </si>
-  <si>
     <t>newProcess</t>
-  </si>
-  <si>
-    <t>{"id":"NEW","order":1,"flow":"NEW","isSubProcess":false,"label":{"eng":"New Registration","fra":"Nouvelle inscription"},"screens":[{"order":1,"name":"consentdet","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"Documents","label":{"fra":"Des documents","eng":"Document Upload"},"caption":{"fra":"Des documents","eng":"Documents"},"fields":[{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"introducerBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Introducteur Biométrie","eng":"Introducer Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducer"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"New Registration","fra":"Nouvelle inscription"},"icon":"NewReg.png","isActive":true,"autoSelectedGroups":null}</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703796d8-085f-4778-80be-df298c1b8367 </t>
-  </si>
-  <si>
-    <t>Update registration process</t>
   </si>
   <si>
     <t>updateProcess</t>
   </si>
   <si>
-    <t>{"id":"UPDATE","order":2,"flow":"UPDATE","isSubProcess":false,"label":{"eng":"Update UIN","fra":"Mettre à jour l'UIN"},"screens":[{"order":1,"name":"consentdet","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":[{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Consent","groupLabel":{"fra":"Consentement","eng":"Consent"},"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Consent","groupLabel":{"fra":"Consentement","eng":"Consent"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":{"fra":"Langue de notification","eng":"Notification Langauge"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":{"fra":"Nom complet","eng":"Full Name"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":{"fra":"Date de naissance","eng":"Date Of Birth"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":{"fra":"Le genre","eng":"Gender"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":{"fra":"Reside Status","eng":"Residence Status"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":{"fra":"Reference Identity Number","eng":"Reference Identity Number"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":{"fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":{"fra":"Phone","eng":"Phone"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":{"fra":"Email","eng":"Email"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":null,"contactType":null,"group":"IntroducerDetails","groupLabel":{"eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty"},"contactType":null,"group":"IntroducerDetails","groupLabel":{"eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('introducerRID') == nil || identity.get('introducerRID') == empty"},"contactType":null,"group":"IntroducerDetails","groupLabel":{"eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('introducerRID') == nil || identity.get('introducerRID') == empty"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"Documents","label":{"fra":"Des documents","eng":"Document Upload"},"caption":{"fra":"Des documents","eng":"Documents"},"fields":[{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'Address' || identity.updatableFieldGroups contains 'Location'"}],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'FullName' || identity.updatableFieldGroups contains 'DateOfBirth'"}],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' || identity.updatableFieldGroups contains 'IntroducerDetails'"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'DateOfBirth'"}],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Biométrie du demandeur","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'Biometrics'"}],"subType":"applicant"},{"id":"individualAuthBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"Used to hold biometrics only for authentication","label":{"fra":"Authentification Biométrie","eng":"Authentication Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"ALL","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"!(identity.get('ageGroup') == 'INFANT') &amp;&amp; !(identity.updatableFieldGroups contains 'Biometrics')"}],"subType":"applicant-auth"},{"id":"introducerBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Introducteur Biométrie","eng":"Introducer Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"ALL","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' || identity.updatableFieldGroups contains 'IntroducerDetails'"}],"subType":"introducer"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"Update UIN","fra":"Mettre à jour l'UIN"},"icon":"UINUpdate.png","isActive":true,"autoSelectedGroups":["Consent","PreferredLanguage","Documents","Biometrics"]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78f07cba-0f5d-4e28-a970-f85d1ac302c9 </t>
-  </si>
-  <si>
-    <t>Lost registration process</t>
-  </si>
-  <si>
     <t>lostProcess</t>
-  </si>
-  <si>
-    <t>{"id":"LOST","order":3,"flow":"LOST","isSubProcess":false,"label":{"eng":"Lost UIN","fra":"UIN perdu"},"screens":[{"order":1,"name":"consentdet","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"proofOfException","inputRequired":false,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"Lost UIN","fra":"UIN perdu"},"icon":"LostUIN.png","isActive":true,"autoSelectedGroups":null}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a080562-86d0-4dba-8bd9-4bdc89243e70 </t>
-  </si>
-  <si>
-    <t>Bio correction registration process</t>
   </si>
   <si>
     <t>bioCorrectionProcess</t>
   </si>
   <si>
-    <t>{"id":"BIOMETRIC_CORRECTION","order":4,"flow":"CORRECTION","isSubProcess":false,"label":{"eng":"Biometric correction","fra":"Correction biométrique"},"screens":[{"order":1,"name":"consentdet","label":{"fra":"Consentement","eng":"Consent"},"caption":{"fra":"Consentement","eng":"Consent"},"fields":[{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":false,"active":false},{"order":2,"name":"BiometricDetails","label":{"fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"proofOfException","inputRequired":false,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":true,"active":false}],"caption":{"eng":"Biometric correction","fra":"Correction biométrique"},"icon":"UINUpdate.png","isActive":true,"autoSelectedGroups":null}</t>
+    <t>[{"name":"scheduledjobs","description":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"label":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"fxml":"ScheduledJobsSettings.fxml","icon":"scheduledjobs.png","order":"1","shortcut-icon":"scheduledjobs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR"]},{"name":"globalconfigs","description":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"label":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"fxml":"GlobalConfigSettings.fxml","icon":"globalconfigs.png","order":"2","shortcut-icon":"globalconfigs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]},{"name":"devices","description":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"label":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"fxml":"DeviceSettings.fxml","icon":"devices.png","order":"3","shortcut-icon":"devices-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]}]</t>
   </si>
   <si>
-    <t>{"identity":{"identity":[{"id":"IDSchemaVersion","description":"ID Schema Version","type":"number","controlType":null,"fieldType":"default","inputRequired":false,"validators":[],"required":true},{"id":"fullName","description":"Enter Full Name","labelName":{"eng":"Full Name","fra":"Nom complet"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"dateOfBirth","description":"Enter DOB","labelName":{"eng":"Date Of Birth","fra":"Date de naissance"},"controlType":"ageDate","inputRequired":true,"fieldType":"default","type":"string","validators":[],"required":true},{"id":"gender","description":"Enter Gender","labelName":{"eng":"Gender","fra":"Le genre"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"residenceStatus","description":"Residence status","labelName":{"eng":"Residence Status","fra":"Statut de résidence"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","type":"simpleType","validators":[],"required":true},{"id":"addressLine1","description":"addressLine1","labelName":{"eng":"Address Line1","fra":"Adresse 1"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"addressLine2","description":"addressLine2","labelName":{"eng":"Address Line2","fra":"Adresse 2"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"addressLine3","description":"addressLine3","labelName":{"eng":"Address Line3","fra":"Adresse 3"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"region","description":"region","labelName":{"eng":"Region","fra":"Région"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"parentLocCode":"MOR","locationHierarchyLevel":1,"required":true},{"id":"province","description":"province","labelName":{"eng":"Province","fra":"Province"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":2,"required":true},{"id":"city","description":"city","labelName":{"eng":"City","fra":"Ville"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":3,"required":true},{"id":"zone","description":"zone","labelName":{"eng":"Zone","fra":"Zone"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"locationHierarchyLevel":4,"required":true},{"id":"postalCode","description":"postalCode","labelName":{"eng":"Postal Code","fra":"code postal"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[]}],"locationHierarchyLevel":5,"required":true},{"id":"phone","description":"phone","labelName":{"eng":"Phone","fra":"Téléphone"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^([6-9]{1})([0-9]{9})$","arguments":[]}],"required":true},{"id":"email","description":"email","labelName":{"eng":"Email","fra":"Email"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$","arguments":[]}],"required":true},{"id":"proofOfAddress","description":"proofOfAddress","labelName":{"fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POA","required":false},{"id":"proofOfIdentity","description":"proofOfIdentity","labelName":{"fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POI","required":true},{"id":"proofOfRelationship","description":"proofOfRelationship","labelName":{"fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POR","required":true},{"id":"proofOfDateOfBirth","description":"proofOfDateOfBirth","labelName":{"fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POB","required":true},{"id":"proofOfException","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true},{"id":"proofOfException-1","description":"proofOfException","labelName":{"fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true}],"locationHierarchy":["region","province","city","zone","postalCode"]}}</t>
+    <t>[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"UIN","inputRequired":false,"type":"string","minimum":0,"maximum":0,"description":"UIN","label":{"eng":"UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"UIN"},{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"ara":"الاسم الكامل","fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"ara":"الاسم الكامل","fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || (identity.isUpdate &amp;&amp; (identity.updatableFieldGroups contains 'IntroducerDetails' || identity.updatableFieldGroups contains 'DateOfBirth'))"}],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"ara":"جنس","fra":"Le genre","eng":"Gender"},"controlType":"dropdown","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"ara":"الاسم الكامل","fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"ara":"الاسم الكامل","fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"ara":"الاسم الكامل","fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"ara":"الاسم الكامل","fra":"Reside Status","eng":"Residence Status"},"controlType":"dropdown","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"ara":"الاسم الكامل","fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"ara":"الاسم الكامل","fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"ara":"الاسم الكامل","fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"ara":"الاسم الكامل","fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"ara":"الاسم الكامل","fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"ara":"الاسم الكامل","fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"ara":"الاسم الكامل","fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"ara":"الاسم الكامل","fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id": "introducerName","inputRequired": true,"type": "simpleType","minimum": 0,"maximum": 0,"description": "introducerName","label": {"ara": "اسم المُعرّف","fra":"nom del'introducteur","eng": "Introducer Name"},"controlType": "textbox","fieldType": "default","format": "none","validators": [],"fieldCategory": "evidence","alignmentGroup": "introducer","visible": null,"contactType": null,"group": "IntroducerDetails","groupLabel": null,"changeAction": null,"transliterate": false,"templateName": null,"fieldLayout": null,"locationHierarchy": null,"required": false,"bioAttributes": null,"requiredOn": [{"engine": "MVEL","expr": "( identity.isNew &amp;&amp; identity.isChild ) || ( identity.isUpdate &amp;&amp; identity.isChild ) || ( !(identity.get('introducerRID') == nil || identity.get('introducerRID') == empty) || !(identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty))"}],"subType": "introducerName"},{"id": "introducerRID","inputRequired": true,"type": "string","minimum": 0,"maximum": 0,"description": "introducerRID","label": {"ara": "مقدم RID","fra": "Introducteur RID","eng": "Introducer RID"},"controlType": "textbox","fieldType": "default","format": "none","validators": [{"type": "regex","validator": "^([0-9]{10,30})$","arguments": [],"langCode": null}],"fieldCategory": "evidence","alignmentGroup": "introducer","visible": null,"contactType": null,"group": "IntroducerDetails","groupLabel": null,"changeAction": null,"transliterate": false,"templateName": null,"fieldLayout": null,"locationHierarchy": null,"required": false,"bioAttributes": null,"requiredOn": [{"engine": "MVEL","expr": "( !(identity.get('introducerName') == nil || identity.get('introducerName') == empty) &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty))"}],"subType": "RID"},{"id": "introducerUIN","inputRequired": true,"type": "string","minimum": 0,"maximum": 0,"description": "introducerUIN","label": {"ara": "مقدم في","fra": "Introducteur UIN","eng": "Introducer UIN"},"controlType": "textbox","fieldType": "default","format": "none","validators": [{"type": "regex","validator": "^([0-9]{10,30})$","arguments": [],"langCode": null}],"fieldCategory": "evidence","alignmentGroup": "introducer","visible": null,"contactType": null,"group": "IntroducerDetails","groupLabel": null,"changeAction": null,"transliterate": false,"templateName": null,"fieldLayout": null,"locationHierarchy": null,"required": false,"bioAttributes": null,"requiredOn": [{"engine": "MVEL","expr": "( !(identity.get('introducerName') == nil || identity.get('introducerName') == empty) &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty))"}],"subType": "UIN"},{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"ara":"إثبات العنوان","fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || ( identity.isUpdate &amp;&amp; (identity.updatableFields contains 'addressLine1' || identity.updatableFields contains 'addressLine2' || identity.updatableFields contains 'addressLine3'))"}],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"ara":"إثبات الهوية","fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isNew || ( identity.isUpdate &amp;&amp; identity.updatableFields contains 'fullName')"}],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"ara":"إثبات العلاقة","fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"( identity.isNew &amp;&amp; identity.isChild ) || ( identity.isUpdate &amp;&amp; (identity.updatableFieldGroups contains 'IntroducerDetails' || identity.isChild))"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"ara":"دليل DOB","fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.isUpdate &amp;&amp; identity.updatableFields contains 'dateOfBirth'"}],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"},{"id":"proofOfException-1","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء2","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"},{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"القياسات الحيوية الفردية","fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"(identity.isNew || identity.isLost || ( identity.isUpdate &amp;&amp; identity.updatableFieldGroups contains 'Biometrics'))"}],"subType":"applicant"},{"id":"individualAuthBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"Used to hold biometrics only for authentication","label":{"ara":"القياسات الحيوية الفردية","fra":"Authentication Biometrics","eng":"Authentication Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"!identity.isChild &amp;&amp; identity.isUpdate &amp;&amp; !(identity.updatableFieldGroups contains 'Biometrics' || identity.updatableFieldGroups contains 'IntroducerDetails')"}],"subType":"applicant-auth"},{"id": "introducerBiometrics","inputRequired": true,"type": "biometricsType","minimum": 0,"maximum": 0,"description": "","label": {"ara": "مقدم القياسات الحيوية","fra": "Introducteur Biométrie","eng": "Introducer Biometrics"},"controlType": "biometrics","fieldType": "default","format": "none","validators": [],"fieldCategory": "pvt","alignmentGroup": null,"visible": null,"contactType": null,"group": "Biometrics","groupLabel": null,"changeAction": null,"transliterate": false,"templateName": null,"fieldLayout": null,"locationHierarchy": null,"required": false,"bioAttributes": ["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn": [{"engine": "MVEL","expr": "(identity.isChild &amp;&amp; identity.isNew) || (identity.isUpdate &amp;&amp; identity.updatableFieldGroups contains 'IntroducerDetails') || !(identity.get('introducerName') == nil || identity.get('introducerName') == empty)"}],"subType": "introducer"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"ara":"الاسم الكامل الكامل الكامل","fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"}]</t>
+  </si>
+  <si>
+    <t>[{"order":1,"name":"ConsentDetails","label":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"caption":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"fields":["consentText","consent"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"fields":["fullName","dateOfBirth","gender","residenceStatus","addressLine1","addressLine2","addressLine3","referenceIdentityNumber","region","province","city","zone","postalCode","phone","email","introducerName","introducerRID","introducerUIN"],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"DocumentsDetails","label":{"ara":"تحميل الوثيقة","fra":"Des documents","eng":"Document Upload"},"caption":{"ara":"وثائق","fra":"Des documents","eng":"Documents"},"fields":["proofOfAddress","proofOfIdentity","proofOfRelationship","proofOfDateOfBirth","proofOfException","proofOfException-1"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"fields":["individualBiometrics","individualAuthBiometrics","introducerBiometrics"],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}]</t>
+  </si>
+  <si>
+    <t>cd005fa3-49bd-4de4-8634-81372b707fd1</t>
+  </si>
+  <si>
+    <t>Pre-registration UI Specification for Data capture</t>
+  </si>
+  <si>
+    <t>{"identity":{"identity":[{"id":"IDSchemaVersion","description":"ID Schema Version","type":"number","controlType":null,"fieldType":"default","inputRequired":false,"validators":[],"required":true},{"id":"fullName","description":"Enter Full Name","labelName":{"eng":"Full Name","ara":"الاسم الكامل","fra":"Nom complet"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"dateOfBirth","description":"Enter DOB","labelName":{"eng":"Date Of Birth","ara":"تاريخ الولادة","fra":"Date de naissance"},"controlType":"ageDate","inputRequired":true,"fieldType":"default","type":"string","validators":[],"required":true},{"id":"gender","description":"Enter Gender","labelName":{"eng":"Gender","ara":"جنس","fra":"Le genre"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","subType":"gender","type":"simpleType","validators":[],"required":true},{"id":"residenceStatus","description":"Residence status","labelName":{"eng":"Residence Status","ara":"حالة الإقامة","fra":"Statut de résidence"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","subType":"residenceStatus","type":"simpleType","validators":[],"required":true},{"id":"addressLine1","description":"addressLine1","labelName":{"eng":"Address Line1","ara":"العنوان السطر 1","fra":"Adresse 1"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"addressLine2","description":"addressLine2","labelName":{"eng":"Address Line2","ara":"العنوان السطر 2","fra":"Adresse 2"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"addressLine3","description":"addressLine3","labelName":{"eng":"Address Line3","ara":"العنوان السطر 3","fra":"Adresse 3"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":false,"transliteration":true},{"id":"region","description":"region","labelName":{"eng":"Region","ara":"منطقة","fra":"Région"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"parentLocCode":"MOR","locationHierarchyLevel":1,"required":true},{"id":"province","description":"province","labelName":{"eng":"Province","ara":"المحافظة","fra":"Province"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":2,"required":true},{"id":"city","description":"city","labelName":{"eng":"City","ara":"مدينة","fra":"Ville"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"locationHierarchyLevel":3,"required":true},{"id":"zone","description":"zone","labelName":{"eng":"Zone","ara":"منطقة","fra":"Zone"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"locationHierarchyLevel":4,"required":true},{"id":"postalCode","description":"postalCode","labelName":{"eng":"Postal Code","ara":"الكود البريدى","fra":"code postal"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[]}],"locationHierarchyLevel":5,"required":true},{"id":"phone","description":"phone","labelName":{"eng":"Phone","ara":"هاتف","fra":"Téléphone"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^([6-9]{1})([0-9]{9})$","arguments":[]}],"required":true},{"id":"email","description":"email","labelName":{"eng":"Email","ara":"البريد الإلكتروني","fra":"Email"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$","arguments":[]}],"required":true},{"id":"proofOfAddress","description":"proofOfAddress","labelName":{"ara":"إثبات العنوان","fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POA","required":false},{"id":"proofOfIdentity","description":"proofOfIdentity","labelName":{"ara":"إثبات الهوية","fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POI","required":true},{"id":"proofOfRelationship","description":"proofOfRelationship","labelName":{"ara":"إثبات العلاقة","fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POR","required":true},{"id":"proofOfDateOfBirth","description":"proofOfDateOfBirth","labelName":{"ara":"دليل DOB","fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POB","required":true},{"id":"proofOfException","description":"proofOfException","labelName":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true},{"id":"proofOfException-1","description":"proofOfException","labelName":{"ara":"إثبات الاستثناء 2","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":true}],"locationHierarchy":["region","province","city","zone","postalCode"]}}</t>
+  </si>
+  <si>
+    <t>service-account-mosip-reg-client</t>
+  </si>
+  <si>
+    <t>c1ef9f1c-b1b6-4c78-871f-000ed543c191</t>
+  </si>
+  <si>
+    <t>New Registration process</t>
+  </si>
+  <si>
+    <t>{"id":"NEW","order":1,"flow":"NEW","isSubProcess":false,"label":{"eng":"New Registration","ara":"تسجيل جديد","fra":"Nouvelle inscription"},"screens":[{"order":1,"name":"consentdet","label":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"caption":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"fields":[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"ara":"الاسم الكامل الكامل الكامل","fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"ara":"لغة الإخطار","fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"ara":"الاسم الكامل","fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"ara":"الاسم الكامل","fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"ara":"جنس","fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"ara":"الاسم الكامل","fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"ara":"الاسم الكامل","fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"ara":"الاسم الكامل","fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"ara":"الاسم الكامل","fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"ara":"الاسم الكامل","fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"ara":"الاسم الكامل","fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"ara":"الاسم الكامل","fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"ara":"الاسم الكامل","fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"ara":"الاسم الكامل","fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"ara":"الاسم الكامل","fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"ara":"الاسم الكامل","fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"ara":"الاسم الكامل","fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"ara":"اسم المُعرّف","fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"ara":"مقدم RID","fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"ara":"مقدم في","fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"Documents","label":{"ara":"تحميل الوثيقة","fra":"Des documents","eng":"Document Upload"},"caption":{"ara":"وثائق","fra":"Des documents","eng":"Documents"},"fields":[{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"ara":"إثبات العنوان","fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"ara":"إثبات الهوية","fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"ara":"إثبات العلاقة","fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"ara":"دليل DOB","fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"القياسات الحيوية الفردية","fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"introducerBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"مقدم القياسات الحيوية","fra":"Introducteur Biométrie","eng":"Introducer Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducer"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"New Registration","ara":"تسجيل جديد","fra":"Nouvelle inscription"},"icon":"NewReg.png","isActive":true,"autoSelectedGroups":null}</t>
+  </si>
+  <si>
+    <t>703796d8-085f-4778-80be-df298c1b8367</t>
+  </si>
+  <si>
+    <t>Update Registration process</t>
+  </si>
+  <si>
+    <t>{"id":"UPDATE","order":2,"flow":"UPDATE","isSubProcess":false,"label":{"eng":"Update UIN","ara":"تحديث UIN","fra":"Mettre à jour l'UIN"},"screens":[{"order":1,"name":"consentdet","label":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"caption":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"fields":[{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Consent","groupLabel":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"ara":"الاسم الكامل الكامل الكامل","fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Consent","groupLabel":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"ara":"لغة الإخطار","fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":{"ara":"لغة الإخطار","fra":"Langue de notification","eng":"Notification Langauge"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"ara":"الاسم الكامل","fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":{"ara":"الاسم الكامل","fra":"Nom complet","eng":"Full Name"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"ara":"الاسم الكامل","fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":{"ara":"تاريخ الولادة","fra":"Date de naissance","eng":"Date Of Birth"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"ara":"جنس","fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":{"ara":"جنس","fra":"Le genre","eng":"Gender"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"ara":"الاسم الكامل","fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"ara":"تبوك","fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"ara":"الاسم الكامل","fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"ara":"تبوك","fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"ara":"الاسم الكامل","fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":{"ara":"تبوك","fra":"Adresse","eng":"Address"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"ara":"الاسم الكامل","fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":{"ara":"الاسم الكامل","fra":"Reside Status","eng":"Residence Status"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"ara":"الاسم الكامل","fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":{"ara":"الاسم الكامل","fra":"Reference Identity Number","eng":"Reference Identity Number"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"ara":"الاسم الكامل","fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"ara":"موقع","fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"ara":"الاسم الكامل","fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"ara":"موقع","fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"ara":"الاسم الكامل","fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"ara":"موقع","fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"ara":"الاسم الكامل","fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":{"ara":"موقع","fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"ara":"الاسم الكامل","fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":{"ara":"موقع","fra":"Lieu","eng":"Location"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"ara":"الاسم الكامل","fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":{"ara":"الاسم الكامل","fra":"Phone","eng":"Phone"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"ara":"الاسم الكامل","fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":{"ara":"الاسم الكامل","fra":"Email","eng":"Email"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"ara":"اسم المُعرّف","fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":null,"contactType":null,"group":"IntroducerDetails","groupLabel":{"ara":"تفاصيل المعرف","eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"ara":"مقدم RID","fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty"},"contactType":null,"group":"IntroducerDetails","groupLabel":{"ara":"تفاصيل المعرف","eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"ara":"مقدم في","fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('introducerRID') == nil || identity.get('introducerRID') == empty"},"contactType":null,"group":"IntroducerDetails","groupLabel":{"ara":"تفاصيل المعرف","eng":"Introducer Details","fra":"Détails de l'introducteur"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('introducerRID') == nil || identity.get('introducerRID') == empty"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"Documents","label":{"ara":"تحميل الوثيقة","fra":"Des documents","eng":"Document Upload"},"caption":{"ara":"وثائق","fra":"Des documents","eng":"Documents"},"fields":[{"id":"proofOfAddress","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfAddress","label":{"ara":"إثبات العنوان","fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"ara":"وثائق","fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'Address' || identity.updatableFieldGroups contains 'Location'"}],"subType":"POA"},{"id":"proofOfIdentity","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfIdentity","label":{"ara":"إثبات الهوية","fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"ara":"وثائق","fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'FullName' || identity.updatableFieldGroups contains 'DateOfBirth'"}],"subType":"POI"},{"id":"proofOfRelationship","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfRelationship","label":{"ara":"إثبات العلاقة","fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"ara":"وثائق","fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' || identity.updatableFieldGroups contains 'IntroducerDetails'"}],"subType":"POR"},{"id":"proofOfDateOfBirth","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfDateOfBirth","label":{"ara":"دليل DOB","fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"ara":"وثائق","fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'DateOfBirth'"}],"subType":"POB"},{"id":"proofOfException","inputRequired":true,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":{"ara":"وثائق","fra":"Documents","eng":"Documents"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":4,"name":"BiometricDetails","label":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"القياسات الحيوية الفردية","fra":"Biométrie du demandeur","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"ara":"القياسات الحيوية","fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.updatableFieldGroups contains 'Biometrics'"}],"subType":"applicant"},{"id":"individualAuthBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"Used to hold biometrics only for authentication","label":{"ara":"القياسات الحيوية الفردية","fra":"Authentification Biométrie","eng":"Authentication Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"ara":"القياسات الحيوية","fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"ALL","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"!(identity.get('ageGroup') == 'INFANT') &amp;&amp; !(identity.updatableFieldGroups contains 'Biometrics')"}],"subType":"applicant-auth"},{"id":"introducerBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"مقدم القياسات الحيوية","fra":"Introducteur Biométrie","eng":"Introducer Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":{"ara":"القياسات الحيوية","fra":"Biométrie","eng":"Biometrics"},"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"ALL","process":"ALL","validationExpr":"leftEye || rightEye || rightIndex || rightLittle || rightRing || rightMiddle || leftIndex || leftLittle || leftRing || leftMiddle || leftThumb || rightThumb || face","bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"]}],"required":false,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' || identity.updatableFieldGroups contains 'IntroducerDetails'"}],"subType":"introducer"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"Update UIN","ara":"تحديث UIN","fra":"Mettre à jour l'UIN"},"icon":"UINUpdate.png","isActive":true,"autoSelectedGroups":["Consent","PreferredLanguage","Documents","Biometrics"]}</t>
+  </si>
+  <si>
+    <t>78f07cba-0f5d-4e28-a970-f85d1ac302c9</t>
+  </si>
+  <si>
+    <t>Lost Registration process</t>
+  </si>
+  <si>
+    <t>{"id":"LOST","order":3,"flow":"LOST","isSubProcess":false,"label":{"eng":"Lost UIN","ara":"فقدت UIN","fra":"UIN perdu"},"screens":[{"order":1,"name":"consentdet","label":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"caption":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"fields":[{"id":"IDSchemaVersion","inputRequired":false,"type":"number","minimum":0,"maximum":0,"description":"ID Schema Version","label":{"eng":"IDSchemaVersion"},"controlType":null,"fieldType":"default","format":"none","validators":[],"fieldCategory":"none","alignmentGroup":null,"visible":null,"contactType":null,"group":null,"groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"IdSchemaVersion"},{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"ara":"الاسم الكامل الكامل الكامل","fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"ara":"لغة الإخطار","fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false},{"order":2,"name":"DemographicDetails","label":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"caption":{"ara":"التفاصيل الديموغرافية","fra":"Détails démographiques","eng":"Demographic Details"},"fields":[{"id":"fullName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Full Name","label":{"ara":"الاسم الكامل","fra":"Nom complet","eng":"Full Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"FullName","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"name"},{"id":"dateOfBirth","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"dateOfBirth","label":{"ara":"الاسم الكامل","fra":"DOB","eng":"DOB"},"controlType":"ageDate","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"DateOfBirth","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"dateOfBirth"},{"id":"gender","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"gender","label":{"ara":"جنس","fra":"Le genre","eng":"Gender"},"controlType":"button","fieldType":"dynamic","format":"","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"Gender","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"gender"},{"id":"addressLine1","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine1","label":{"ara":"الاسم الكامل","fra":"line1","eng":"line1"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine1"},{"id":"addressLine2","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine2","label":{"ara":"الاسم الكامل","fra":"line2","eng":"line2"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine2"},{"id":"addressLine3","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"addressLine3","label":{"ara":"الاسم الكامل","fra":"line3","eng":"line3"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{3,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"address","visible":null,"contactType":"Postal","group":"Address","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"addressLine3"},{"id":"residenceStatus","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"residenceStatus","label":{"ara":"الاسم الكامل","fra":"Reside Status","eng":"Residence Status"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"kyc","alignmentGroup":"group1","visible":null,"contactType":null,"group":"ResidenceStatus","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"residenceStatus"},{"id":"referenceIdentityNumber","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"referenceIdentityNumber","label":{"ara":"الاسم الكامل","fra":"Reference Identity Number","eng":"Reference Identity Number"},"controlType":"textbox","fieldType":"default","format":"kyc","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"ReferenceIdentityNumber","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"none"},{"id":"region","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"region","label":{"ara":"الاسم الكامل","fra":"Region","eng":"Region"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Region"},{"id":"province","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"province","label":{"ara":"الاسم الكامل","fra":"Province","eng":"Province"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Province"},{"id":"city","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"city","label":{"ara":"الاسم الكامل","fra":"City","eng":"City"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"City"},{"id":"zone","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"zone","label":{"ara":"الاسم الكامل","fra":"Zone","eng":"Zone"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":null,"group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Zone"},{"id":"postalCode","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"postalCode","label":{"ara":"الاسم الكامل","fra":"Postal","eng":"Postal"},"controlType":"dropdown","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"location","visible":null,"contactType":"Postal","group":"Location","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Postal Code"},{"id":"phone","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"phone","label":{"ara":"الاسم الكامل","fra":"Phone","eng":"Phone"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Phone","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Phone"},{"id":"email","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"email","label":{"ara":"الاسم الكامل","fra":"Email","eng":"Email"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"langCode":null}],"fieldCategory":"pvt","alignmentGroup":"contact","visible":null,"contactType":"email","group":"Email","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"Email"},{"id":"introducerName","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"introducerName","label":{"ara":"اسم المُعرّف","fra":"nom del'introducteur","eng":"Introducer Name"},"controlType":"textbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT'"}],"subType":"introducerName"},{"id":"introducerRID","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerRID","label":{"ara":"مقدم RID","fra":"Introducteur RID","eng":"Introducer RID"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerUIN') == nil || identity.get('introducerUIN') == empty)"}],"subType":"RID"},{"id":"introducerUIN","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"introducerUIN","label":{"ara":"مقدم في","fra":"Introducteur UIN","eng":"Introducer UIN"},"controlType":"textbox","fieldType":"default","format":"none","validators":[{"type":"regex","validator":"^([0-9]{10,30})$","arguments":[],"langCode":null}],"fieldCategory":"evidence","alignmentGroup":"introducer","visible":{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"},"contactType":null,"group":"IntroducerDetails","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[{"engine":"MVEL","expr":"identity.get('ageGroup') == 'INFANT' &amp;&amp; (identity.get('introducerRID') == nil || identity.get('introducerRID') == empty)"}],"subType":"UIN"}],"layoutTemplate":null,"preRegFetchRequired":true,"active":false},{"order":3,"name":"BiometricDetails","label":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"القياسات الحيوية الفردية","fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"proofOfException","inputRequired":false,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"active":false}],"caption":{"eng":"Lost UIN","ara":"فقدت UIN","fra":"UIN perdu"},"icon":"LostUIN.png","isActive":true,"autoSelectedGroups":null}</t>
+  </si>
+  <si>
+    <t>6a080562-86d0-4dba-8bd9-4bdc89243e70</t>
+  </si>
+  <si>
+    <t>Biometric correction Registration process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":"BIOMETRIC_CORRECTION","order":4,"flow":"CORRECTION","isSubProcess":false,"label":{"eng":"Biometric correction","ara":"التصحيح البيومتري","fra":"Correction biométrique"},"screens":[{"order":1,"name":"consentdet","label":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"caption":{"ara":"موافقة","fra":"Consentement","eng":"Consent"},"fields":[{"id":"consentText","inputRequired":true,"type":"simpleType","minimum":0,"maximum":0,"description":"Consent","label":{},"controlType":"html","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consentText","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":"Registration Consent","fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consentText"},{"id":"consent","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"consent accepted","label":{"ara":"الاسم الكامل الكامل الكامل","fra":"J'ai lu et j'accepte les termes et conditions pour partager mes PII","eng":"I have read and accept terms and conditions to share my PII"},"controlType":"checkbox","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"consent","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"consent"},{"id":"preferredLang","inputRequired":true,"type":"string","minimum":0,"maximum":0,"description":"user preferred Language","label":{"ara":"لغة الإخطار","fra":"Langue de notification","eng":"Notification Langauge"},"controlType":"button","fieldType":"dynamic","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":"group1","visible":null,"contactType":null,"group":"PreferredLanguage","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":true,"bioAttributes":null,"requiredOn":[],"subType":"preferredLang"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":false,"active":false},{"order":2,"name":"BiometricDetails","label":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"caption":{"ara":"التفاصيل البيومترية","fra":"Détails biométriques","eng":"Biometric Details"},"fields":[{"id":"individualBiometrics","inputRequired":true,"type":"biometricsType","minimum":0,"maximum":0,"description":"","label":{"ara":"القياسات الحيوية الفردية","fra":"Applicant Biometrics","eng":"Applicant Biometrics"},"controlType":"biometrics","fieldType":"default","format":"none","validators":[],"fieldCategory":"pvt","alignmentGroup":null,"visible":null,"contactType":null,"group":"Biometrics","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":[{"ageGroup":"INFANT","process":"ALL","validationExpr":"face","bioAttributes":["face"]}],"required":true,"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"requiredOn":[],"subType":"applicant"},{"id":"proofOfException","inputRequired":false,"type":"documentType","minimum":0,"maximum":0,"description":"proofOfException","label":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","fieldType":"default","format":"none","validators":[],"fieldCategory":"evidence","alignmentGroup":null,"visible":null,"contactType":null,"group":"Documents","groupLabel":null,"changeAction":null,"transliterate":false,"templateName":null,"fieldLayout":null,"locationHierarchy":null,"conditionalBioAttributes":null,"required":false,"bioAttributes":null,"requiredOn":[],"subType":"POE"}],"layoutTemplate":null,"preRegFetchRequired":false,"additionalInfoRequestIdRequired":true,"active":false}],"caption":{"eng":"Biometric correction","ara":"التصحيح البيومتري","fra":"Correction biométrique"},"icon":"UINUpdate.png","isActive":true,"autoSelectedGroups":null} </t>
+  </si>
+  <si>
+    <t>Pre-registration UI Specification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,13 +215,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -273,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -281,25 +267,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,19 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="45.85546875" customWidth="1"/>
@@ -596,524 +573,524 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0.1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>1001</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>0.1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6">
+        <v>110005</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="B3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2">
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6">
         <v>1001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="6">
         <v>0.1</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6">
+        <v>110005</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="6">
+        <v>110005</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="B4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
+      <c r="G4" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>1001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>0.1</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6">
+        <v>110005</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6">
+        <v>110005</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>1001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <v>0.1</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="6">
+        <v>110024</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="6">
+        <v>110024</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>35</v>
+      <c r="R7" s="6"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="B8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="6">
+        <v>110024</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>27</v>
+      <c r="R8" s="6"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
       </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B9" s="6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>47</v>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H9" s="6">
         <v>1001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I9" s="6">
         <v>0.1</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="6">
+        <v>110024</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1122,7 +1099,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1142,7 +1119,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
